--- a/Code/Results/Cases/Case_1_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_9/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.582691456691549</v>
+        <v>1.582691456692146</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1549334201204715</v>
+        <v>0.154933420120571</v>
       </c>
       <c r="E2">
         <v>1.144000461329298</v>
@@ -427,22 +427,22 @@
         <v>2.080410811338538</v>
       </c>
       <c r="G2">
-        <v>1.880065385648081</v>
+        <v>1.880065385648066</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6331488345306937</v>
+        <v>0.6331488345306795</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.194103937109475</v>
+        <v>3.194103937109617</v>
       </c>
       <c r="L2">
-        <v>3.320190622477654</v>
+        <v>3.320190622477625</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.36847225323271</v>
+        <v>1.368472253232568</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1302713353338447</v>
+        <v>0.1302713353337595</v>
       </c>
       <c r="E3">
-        <v>0.9957689564974856</v>
+        <v>0.9957689564974714</v>
       </c>
       <c r="F3">
-        <v>1.762880253877498</v>
+        <v>1.762880253877526</v>
       </c>
       <c r="G3">
-        <v>1.588964843669601</v>
+        <v>1.588964843669615</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5527482524062606</v>
+        <v>0.5527482524062819</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.749883947463601</v>
+        <v>2.749883947463559</v>
       </c>
       <c r="L3">
         <v>2.859684334523081</v>
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.239203432081439</v>
+        <v>1.239203432081382</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.115863605345595</v>
+        <v>0.115863605345325</v>
       </c>
       <c r="E4">
         <v>0.9060931719826186</v>
       </c>
       <c r="F4">
-        <v>1.582666624692095</v>
+        <v>1.582666624692081</v>
       </c>
       <c r="G4">
-        <v>1.423148997589607</v>
+        <v>1.423148997589621</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5041298215107872</v>
+        <v>0.504129821510773</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.482351752112521</v>
+        <v>2.482351752112535</v>
       </c>
       <c r="L4">
-        <v>2.582167089838109</v>
+        <v>2.582167089838123</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.186993012324336</v>
+        <v>1.186993012324479</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1101441032481176</v>
+        <v>0.1101441032479187</v>
       </c>
       <c r="E5">
         <v>0.8698155962685377</v>
@@ -547,16 +547,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4844678752952731</v>
+        <v>0.484467875295266</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.374380271053383</v>
+        <v>2.374380271053425</v>
       </c>
       <c r="L5">
-        <v>2.470134062143146</v>
+        <v>2.470134062143117</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.178349049194736</v>
+        <v>1.178349049194708</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1092026834866004</v>
+        <v>0.1092026834865152</v>
       </c>
       <c r="E6">
-        <v>0.8638059337404513</v>
+        <v>0.8638059337404371</v>
       </c>
       <c r="F6">
-        <v>1.50088836571193</v>
+        <v>1.500888365711916</v>
       </c>
       <c r="G6">
-        <v>1.347723779487922</v>
+        <v>1.34772377948795</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4812111171166364</v>
+        <v>0.4812111171166293</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.356508158285578</v>
+        <v>2.356508158285507</v>
       </c>
       <c r="L6">
         <v>2.451588064651091</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.238497534645063</v>
+        <v>1.238497534645632</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1157858954840947</v>
+        <v>0.1157858954843221</v>
       </c>
       <c r="E7">
-        <v>0.9056029284427609</v>
+        <v>0.9056029284428035</v>
       </c>
       <c r="F7">
-        <v>1.581706653513876</v>
+        <v>1.58170665351382</v>
       </c>
       <c r="G7">
-        <v>1.422264309083459</v>
+        <v>1.422264309083431</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5038640900704863</v>
+        <v>0.5038640900704934</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.48089167836946</v>
+        <v>2.480891678369474</v>
       </c>
       <c r="L7">
         <v>2.580652206626823</v>
@@ -640,7 +640,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.508293570574835</v>
+        <v>1.508293570574494</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -649,28 +649,28 @@
         <v>0.1462557358826615</v>
       </c>
       <c r="E8">
-        <v>1.092566212778408</v>
+        <v>1.092566212778422</v>
       </c>
       <c r="F8">
         <v>1.967502639220157</v>
       </c>
       <c r="G8">
-        <v>1.776689663929801</v>
+        <v>1.776689663929787</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6052469835270884</v>
+        <v>0.6052469835271097</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.039682050835722</v>
+        <v>3.039682050835694</v>
       </c>
       <c r="L8">
-        <v>3.160152867561834</v>
+        <v>3.16015286756182</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.060778815503227</v>
+        <v>2.060778815503397</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2136904617952524</v>
+        <v>0.2136904617953377</v>
       </c>
       <c r="E9">
-        <v>1.473729597424665</v>
+        <v>1.473729597424636</v>
       </c>
       <c r="F9">
         <v>2.871776227961192</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.8120624820775646</v>
+        <v>0.8120624820775717</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>4.191363292721348</v>
       </c>
       <c r="L9">
-        <v>4.352295959838443</v>
+        <v>4.352295959838457</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -722,13 +722,13 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2713076204262137</v>
+        <v>0.2713076204260858</v>
       </c>
       <c r="E10">
-        <v>1.769590744939109</v>
+        <v>1.769590744939123</v>
       </c>
       <c r="F10">
-        <v>3.681424026105645</v>
+        <v>3.681424026105674</v>
       </c>
       <c r="G10">
         <v>3.336130464259796</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.9725569064862043</v>
+        <v>0.9725569064862469</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.693901988529092</v>
+        <v>2.693901988528864</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3003773009238131</v>
+        <v>0.3003773009238415</v>
       </c>
       <c r="E11">
-        <v>1.909801059769521</v>
+        <v>1.909801059769549</v>
       </c>
       <c r="F11">
         <v>4.098933640638563</v>
       </c>
       <c r="G11">
-        <v>3.71396046938959</v>
+        <v>3.713960469389633</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.048562137026536</v>
+        <v>1.048562137026579</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>5.530485944398009</v>
       </c>
       <c r="L11">
-        <v>5.733241642724323</v>
+        <v>5.733241642724408</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.772426381683431</v>
+        <v>2.772426381683033</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3119300160351628</v>
+        <v>0.3119300160352054</v>
       </c>
       <c r="E12">
-        <v>1.963957062320318</v>
+        <v>1.96395706232029</v>
       </c>
       <c r="F12">
-        <v>4.266202880228406</v>
+        <v>4.266202880228434</v>
       </c>
       <c r="G12">
-        <v>3.865193476649623</v>
+        <v>3.865193476649594</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.077904856798312</v>
+        <v>1.077904856798298</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>5.698476688811638</v>
+        <v>5.698476688811724</v>
       </c>
       <c r="L12">
         <v>5.905988510475339</v>
@@ -830,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.755443043028606</v>
+        <v>2.755443043028833</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -851,13 +851,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.071557900272921</v>
+        <v>1.071557900272907</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>5.662102735306007</v>
+        <v>5.662102735306036</v>
       </c>
       <c r="L13">
         <v>5.868595030020487</v>
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.700330515475059</v>
+        <v>2.700330515475002</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3013158992110476</v>
+        <v>0.3013158992113745</v>
       </c>
       <c r="E14">
         <v>1.914233494876143</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.050964041535565</v>
+        <v>1.050964041535579</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>5.544220906816093</v>
+        <v>5.544220906816065</v>
       </c>
       <c r="L14">
-        <v>5.747369982005722</v>
+        <v>5.74736998200575</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.666775611845139</v>
+        <v>2.666775611845082</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.296430619898203</v>
+        <v>0.2964306198983735</v>
       </c>
       <c r="E15">
-        <v>1.891099610774049</v>
+        <v>1.891099610774006</v>
       </c>
       <c r="F15">
         <v>4.041956093992013</v>
       </c>
       <c r="G15">
-        <v>3.662428364486232</v>
+        <v>3.662428364486189</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.038427343516688</v>
+        <v>1.03842734351673</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>5.472563075465104</v>
       </c>
       <c r="L15">
-        <v>5.67365112361901</v>
+        <v>5.673651123619038</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.477320544386544</v>
+        <v>2.477320544386714</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2694757902163332</v>
+        <v>0.2694757902161911</v>
       </c>
       <c r="E16">
-        <v>1.76056069445066</v>
+        <v>1.760560694450675</v>
       </c>
       <c r="F16">
         <v>3.655292623365852</v>
       </c>
       <c r="G16">
-        <v>3.312464202597226</v>
+        <v>3.312464202597241</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.9676603528531587</v>
+        <v>0.9676603528531444</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>5.069504195280018</v>
+        <v>5.069504195279961</v>
       </c>
       <c r="L16">
-        <v>5.258610813064735</v>
+        <v>5.258610813064706</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.363352042026236</v>
+        <v>2.363352042026349</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2537539004755303</v>
+        <v>0.2537539004756297</v>
       </c>
       <c r="E17">
-        <v>1.682076268813304</v>
+        <v>1.682076268813276</v>
       </c>
       <c r="F17">
-        <v>3.431977655313233</v>
+        <v>3.431977655313261</v>
       </c>
       <c r="G17">
-        <v>3.110116543320999</v>
+        <v>3.110116543320984</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.9250957068625354</v>
+        <v>0.9250957068625638</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>4.828210943583542</v>
+        <v>4.828210943583485</v>
       </c>
       <c r="L17">
-        <v>5.009844913134415</v>
+        <v>5.009844913134387</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.298531766522217</v>
+        <v>2.298531766521819</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2449701443430712</v>
+        <v>0.2449701443431849</v>
       </c>
       <c r="E18">
-        <v>1.637444446445087</v>
+        <v>1.637444446445102</v>
       </c>
       <c r="F18">
-        <v>3.308006695016132</v>
+        <v>3.308006695016161</v>
       </c>
       <c r="G18">
-        <v>2.997702960987368</v>
+        <v>2.997702960987397</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.9008859633006523</v>
+        <v>0.9008859633006381</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>4.691337407119306</v>
+        <v>4.691337407119278</v>
       </c>
       <c r="L18">
-        <v>4.868638357910484</v>
+        <v>4.86863835791047</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.276701952970939</v>
+        <v>2.276701952971621</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2420372359007956</v>
+        <v>0.2420372359006819</v>
       </c>
       <c r="E19">
         <v>1.622414014565919</v>
@@ -1079,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8927323518086894</v>
+        <v>0.8927323518086752</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>4.645298724570324</v>
+        <v>4.645298724570296</v>
       </c>
       <c r="L19">
-        <v>4.821127401240162</v>
+        <v>4.821127401240133</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.375406440711345</v>
+        <v>2.375406440711572</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2553998845638716</v>
+        <v>0.2553998845639995</v>
       </c>
       <c r="E20">
-        <v>1.690376659818398</v>
+        <v>1.690376659818369</v>
       </c>
       <c r="F20">
-        <v>3.455273825083168</v>
+        <v>3.455273825083196</v>
       </c>
       <c r="G20">
         <v>3.131234078531222</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.9295977779800637</v>
+        <v>0.9295977779800495</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>4.85369327181661</v>
       </c>
       <c r="L20">
-        <v>5.036126535980372</v>
+        <v>5.036126535980387</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.7164753615628</v>
+        <v>2.71647536156263</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3036787369052263</v>
+        <v>0.3036787369053684</v>
       </c>
       <c r="E21">
-        <v>1.925366132841802</v>
+        <v>1.925366132841845</v>
       </c>
       <c r="F21">
-        <v>4.146661860431038</v>
+        <v>4.14666186043101</v>
       </c>
       <c r="G21">
-        <v>3.757120419346847</v>
+        <v>3.757120419346862</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>5.57872931290828</v>
+        <v>5.578729312908308</v>
       </c>
       <c r="L21">
-        <v>5.782863209370191</v>
+        <v>5.78286320937022</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.948202147205166</v>
+        <v>2.948202147205393</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.3385075419484593</v>
+        <v>0.3385075419485162</v>
       </c>
       <c r="E22">
-        <v>2.085315690338945</v>
+        <v>2.085315690338973</v>
       </c>
       <c r="F22">
-        <v>4.653511340858728</v>
+        <v>4.653511340858671</v>
       </c>
       <c r="G22">
-        <v>4.215112048040993</v>
+        <v>4.21511204804095</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.143623329431477</v>
+        <v>1.143623329431492</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>6.076330664580979</v>
+        <v>6.076330664580894</v>
       </c>
       <c r="L22">
-        <v>6.29408427068023</v>
+        <v>6.294084270680258</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.82358565467689</v>
+        <v>2.823585654676435</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.3195612663681686</v>
+        <v>0.3195612663679555</v>
       </c>
       <c r="E23">
-        <v>1.999257952857207</v>
+        <v>1.999257952857235</v>
       </c>
       <c r="F23">
-        <v>4.377070430270038</v>
+        <v>4.377070430269981</v>
       </c>
       <c r="G23">
-        <v>3.965393241400633</v>
+        <v>3.965393241400591</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.097026517988297</v>
+        <v>1.097026517988255</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>5.808186053318508</v>
+        <v>5.808186053318565</v>
       </c>
       <c r="L23">
-        <v>6.018737826928145</v>
+        <v>6.018737826928202</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.36995448421527</v>
+        <v>2.369954484214929</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2546549503661453</v>
+        <v>0.254654950365989</v>
       </c>
       <c r="E24">
-        <v>1.686622544976217</v>
+        <v>1.686622544976231</v>
       </c>
       <c r="F24">
         <v>3.444728020145902</v>
       </c>
       <c r="G24">
-        <v>3.121674766921487</v>
+        <v>3.121674766921515</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.9275615871917751</v>
+        <v>0.9275615871917466</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>4.842167017538941</v>
+        <v>4.842167017538799</v>
       </c>
       <c r="L24">
         <v>5.024239033182269</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.907949980461694</v>
+        <v>1.907949980461524</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1943270631474263</v>
+        <v>0.1943270631474121</v>
       </c>
       <c r="E25">
-        <v>1.368436709958544</v>
+        <v>1.36843670995853</v>
       </c>
       <c r="F25">
-        <v>2.606431653019456</v>
+        <v>2.606431653019484</v>
       </c>
       <c r="G25">
         <v>2.360161183255926</v>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.7549272351231906</v>
+        <v>0.7549272351231622</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_9/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.582691456692146</v>
+        <v>1.582691456691549</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.154933420120571</v>
+        <v>0.1549334201204715</v>
       </c>
       <c r="E2">
         <v>1.144000461329298</v>
@@ -427,22 +427,22 @@
         <v>2.080410811338538</v>
       </c>
       <c r="G2">
-        <v>1.880065385648066</v>
+        <v>1.880065385648081</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6331488345306795</v>
+        <v>0.6331488345306937</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.194103937109617</v>
+        <v>3.194103937109475</v>
       </c>
       <c r="L2">
-        <v>3.320190622477625</v>
+        <v>3.320190622477654</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.368472253232568</v>
+        <v>1.36847225323271</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1302713353337595</v>
+        <v>0.1302713353338447</v>
       </c>
       <c r="E3">
-        <v>0.9957689564974714</v>
+        <v>0.9957689564974856</v>
       </c>
       <c r="F3">
-        <v>1.762880253877526</v>
+        <v>1.762880253877498</v>
       </c>
       <c r="G3">
-        <v>1.588964843669615</v>
+        <v>1.588964843669601</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5527482524062819</v>
+        <v>0.5527482524062606</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.749883947463559</v>
+        <v>2.749883947463601</v>
       </c>
       <c r="L3">
         <v>2.859684334523081</v>
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.239203432081382</v>
+        <v>1.239203432081439</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.115863605345325</v>
+        <v>0.115863605345595</v>
       </c>
       <c r="E4">
         <v>0.9060931719826186</v>
       </c>
       <c r="F4">
-        <v>1.582666624692081</v>
+        <v>1.582666624692095</v>
       </c>
       <c r="G4">
-        <v>1.423148997589621</v>
+        <v>1.423148997589607</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.504129821510773</v>
+        <v>0.5041298215107872</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.482351752112535</v>
+        <v>2.482351752112521</v>
       </c>
       <c r="L4">
-        <v>2.582167089838123</v>
+        <v>2.582167089838109</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.186993012324479</v>
+        <v>1.186993012324336</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1101441032479187</v>
+        <v>0.1101441032481176</v>
       </c>
       <c r="E5">
         <v>0.8698155962685377</v>
@@ -547,16 +547,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.484467875295266</v>
+        <v>0.4844678752952731</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.374380271053425</v>
+        <v>2.374380271053383</v>
       </c>
       <c r="L5">
-        <v>2.470134062143117</v>
+        <v>2.470134062143146</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.178349049194708</v>
+        <v>1.178349049194736</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1092026834865152</v>
+        <v>0.1092026834866004</v>
       </c>
       <c r="E6">
-        <v>0.8638059337404371</v>
+        <v>0.8638059337404513</v>
       </c>
       <c r="F6">
-        <v>1.500888365711916</v>
+        <v>1.50088836571193</v>
       </c>
       <c r="G6">
-        <v>1.34772377948795</v>
+        <v>1.347723779487922</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4812111171166293</v>
+        <v>0.4812111171166364</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.356508158285507</v>
+        <v>2.356508158285578</v>
       </c>
       <c r="L6">
         <v>2.451588064651091</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.238497534645632</v>
+        <v>1.238497534645063</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1157858954843221</v>
+        <v>0.1157858954840947</v>
       </c>
       <c r="E7">
-        <v>0.9056029284428035</v>
+        <v>0.9056029284427609</v>
       </c>
       <c r="F7">
-        <v>1.58170665351382</v>
+        <v>1.581706653513876</v>
       </c>
       <c r="G7">
-        <v>1.422264309083431</v>
+        <v>1.422264309083459</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5038640900704934</v>
+        <v>0.5038640900704863</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.480891678369474</v>
+        <v>2.48089167836946</v>
       </c>
       <c r="L7">
         <v>2.580652206626823</v>
@@ -640,7 +640,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.508293570574494</v>
+        <v>1.508293570574835</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -649,28 +649,28 @@
         <v>0.1462557358826615</v>
       </c>
       <c r="E8">
-        <v>1.092566212778422</v>
+        <v>1.092566212778408</v>
       </c>
       <c r="F8">
         <v>1.967502639220157</v>
       </c>
       <c r="G8">
-        <v>1.776689663929787</v>
+        <v>1.776689663929801</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6052469835271097</v>
+        <v>0.6052469835270884</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.039682050835694</v>
+        <v>3.039682050835722</v>
       </c>
       <c r="L8">
-        <v>3.16015286756182</v>
+        <v>3.160152867561834</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.060778815503397</v>
+        <v>2.060778815503227</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2136904617953377</v>
+        <v>0.2136904617952524</v>
       </c>
       <c r="E9">
-        <v>1.473729597424636</v>
+        <v>1.473729597424665</v>
       </c>
       <c r="F9">
         <v>2.871776227961192</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.8120624820775717</v>
+        <v>0.8120624820775646</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>4.191363292721348</v>
       </c>
       <c r="L9">
-        <v>4.352295959838457</v>
+        <v>4.352295959838443</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -722,13 +722,13 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2713076204260858</v>
+        <v>0.2713076204262137</v>
       </c>
       <c r="E10">
-        <v>1.769590744939123</v>
+        <v>1.769590744939109</v>
       </c>
       <c r="F10">
-        <v>3.681424026105674</v>
+        <v>3.681424026105645</v>
       </c>
       <c r="G10">
         <v>3.336130464259796</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.9725569064862469</v>
+        <v>0.9725569064862043</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.693901988528864</v>
+        <v>2.693901988529092</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3003773009238415</v>
+        <v>0.3003773009238131</v>
       </c>
       <c r="E11">
-        <v>1.909801059769549</v>
+        <v>1.909801059769521</v>
       </c>
       <c r="F11">
         <v>4.098933640638563</v>
       </c>
       <c r="G11">
-        <v>3.713960469389633</v>
+        <v>3.71396046938959</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.048562137026579</v>
+        <v>1.048562137026536</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>5.530485944398009</v>
       </c>
       <c r="L11">
-        <v>5.733241642724408</v>
+        <v>5.733241642724323</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.772426381683033</v>
+        <v>2.772426381683431</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3119300160352054</v>
+        <v>0.3119300160351628</v>
       </c>
       <c r="E12">
-        <v>1.96395706232029</v>
+        <v>1.963957062320318</v>
       </c>
       <c r="F12">
-        <v>4.266202880228434</v>
+        <v>4.266202880228406</v>
       </c>
       <c r="G12">
-        <v>3.865193476649594</v>
+        <v>3.865193476649623</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.077904856798298</v>
+        <v>1.077904856798312</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>5.698476688811724</v>
+        <v>5.698476688811638</v>
       </c>
       <c r="L12">
         <v>5.905988510475339</v>
@@ -830,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.755443043028833</v>
+        <v>2.755443043028606</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -851,13 +851,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.071557900272907</v>
+        <v>1.071557900272921</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>5.662102735306036</v>
+        <v>5.662102735306007</v>
       </c>
       <c r="L13">
         <v>5.868595030020487</v>
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.700330515475002</v>
+        <v>2.700330515475059</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3013158992113745</v>
+        <v>0.3013158992110476</v>
       </c>
       <c r="E14">
         <v>1.914233494876143</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.050964041535579</v>
+        <v>1.050964041535565</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>5.544220906816065</v>
+        <v>5.544220906816093</v>
       </c>
       <c r="L14">
-        <v>5.74736998200575</v>
+        <v>5.747369982005722</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.666775611845082</v>
+        <v>2.666775611845139</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2964306198983735</v>
+        <v>0.296430619898203</v>
       </c>
       <c r="E15">
-        <v>1.891099610774006</v>
+        <v>1.891099610774049</v>
       </c>
       <c r="F15">
         <v>4.041956093992013</v>
       </c>
       <c r="G15">
-        <v>3.662428364486189</v>
+        <v>3.662428364486232</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.03842734351673</v>
+        <v>1.038427343516688</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>5.472563075465104</v>
       </c>
       <c r="L15">
-        <v>5.673651123619038</v>
+        <v>5.67365112361901</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.477320544386714</v>
+        <v>2.477320544386544</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2694757902161911</v>
+        <v>0.2694757902163332</v>
       </c>
       <c r="E16">
-        <v>1.760560694450675</v>
+        <v>1.76056069445066</v>
       </c>
       <c r="F16">
         <v>3.655292623365852</v>
       </c>
       <c r="G16">
-        <v>3.312464202597241</v>
+        <v>3.312464202597226</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.9676603528531444</v>
+        <v>0.9676603528531587</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>5.069504195279961</v>
+        <v>5.069504195280018</v>
       </c>
       <c r="L16">
-        <v>5.258610813064706</v>
+        <v>5.258610813064735</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.363352042026349</v>
+        <v>2.363352042026236</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2537539004756297</v>
+        <v>0.2537539004755303</v>
       </c>
       <c r="E17">
-        <v>1.682076268813276</v>
+        <v>1.682076268813304</v>
       </c>
       <c r="F17">
-        <v>3.431977655313261</v>
+        <v>3.431977655313233</v>
       </c>
       <c r="G17">
-        <v>3.110116543320984</v>
+        <v>3.110116543320999</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.9250957068625638</v>
+        <v>0.9250957068625354</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>4.828210943583485</v>
+        <v>4.828210943583542</v>
       </c>
       <c r="L17">
-        <v>5.009844913134387</v>
+        <v>5.009844913134415</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.298531766521819</v>
+        <v>2.298531766522217</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2449701443431849</v>
+        <v>0.2449701443430712</v>
       </c>
       <c r="E18">
-        <v>1.637444446445102</v>
+        <v>1.637444446445087</v>
       </c>
       <c r="F18">
-        <v>3.308006695016161</v>
+        <v>3.308006695016132</v>
       </c>
       <c r="G18">
-        <v>2.997702960987397</v>
+        <v>2.997702960987368</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.9008859633006381</v>
+        <v>0.9008859633006523</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>4.691337407119278</v>
+        <v>4.691337407119306</v>
       </c>
       <c r="L18">
-        <v>4.86863835791047</v>
+        <v>4.868638357910484</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.276701952971621</v>
+        <v>2.276701952970939</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2420372359006819</v>
+        <v>0.2420372359007956</v>
       </c>
       <c r="E19">
         <v>1.622414014565919</v>
@@ -1079,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8927323518086752</v>
+        <v>0.8927323518086894</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>4.645298724570296</v>
+        <v>4.645298724570324</v>
       </c>
       <c r="L19">
-        <v>4.821127401240133</v>
+        <v>4.821127401240162</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.375406440711572</v>
+        <v>2.375406440711345</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2553998845639995</v>
+        <v>0.2553998845638716</v>
       </c>
       <c r="E20">
-        <v>1.690376659818369</v>
+        <v>1.690376659818398</v>
       </c>
       <c r="F20">
-        <v>3.455273825083196</v>
+        <v>3.455273825083168</v>
       </c>
       <c r="G20">
         <v>3.131234078531222</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.9295977779800495</v>
+        <v>0.9295977779800637</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>4.85369327181661</v>
       </c>
       <c r="L20">
-        <v>5.036126535980387</v>
+        <v>5.036126535980372</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.71647536156263</v>
+        <v>2.7164753615628</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3036787369053684</v>
+        <v>0.3036787369052263</v>
       </c>
       <c r="E21">
-        <v>1.925366132841845</v>
+        <v>1.925366132841802</v>
       </c>
       <c r="F21">
-        <v>4.14666186043101</v>
+        <v>4.146661860431038</v>
       </c>
       <c r="G21">
-        <v>3.757120419346862</v>
+        <v>3.757120419346847</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>5.578729312908308</v>
+        <v>5.57872931290828</v>
       </c>
       <c r="L21">
-        <v>5.78286320937022</v>
+        <v>5.782863209370191</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.948202147205393</v>
+        <v>2.948202147205166</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.3385075419485162</v>
+        <v>0.3385075419484593</v>
       </c>
       <c r="E22">
-        <v>2.085315690338973</v>
+        <v>2.085315690338945</v>
       </c>
       <c r="F22">
-        <v>4.653511340858671</v>
+        <v>4.653511340858728</v>
       </c>
       <c r="G22">
-        <v>4.21511204804095</v>
+        <v>4.215112048040993</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.143623329431492</v>
+        <v>1.143623329431477</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>6.076330664580894</v>
+        <v>6.076330664580979</v>
       </c>
       <c r="L22">
-        <v>6.294084270680258</v>
+        <v>6.29408427068023</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.823585654676435</v>
+        <v>2.82358565467689</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.3195612663679555</v>
+        <v>0.3195612663681686</v>
       </c>
       <c r="E23">
-        <v>1.999257952857235</v>
+        <v>1.999257952857207</v>
       </c>
       <c r="F23">
-        <v>4.377070430269981</v>
+        <v>4.377070430270038</v>
       </c>
       <c r="G23">
-        <v>3.965393241400591</v>
+        <v>3.965393241400633</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.097026517988255</v>
+        <v>1.097026517988297</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>5.808186053318565</v>
+        <v>5.808186053318508</v>
       </c>
       <c r="L23">
-        <v>6.018737826928202</v>
+        <v>6.018737826928145</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.369954484214929</v>
+        <v>2.36995448421527</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.254654950365989</v>
+        <v>0.2546549503661453</v>
       </c>
       <c r="E24">
-        <v>1.686622544976231</v>
+        <v>1.686622544976217</v>
       </c>
       <c r="F24">
         <v>3.444728020145902</v>
       </c>
       <c r="G24">
-        <v>3.121674766921515</v>
+        <v>3.121674766921487</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.9275615871917466</v>
+        <v>0.9275615871917751</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>4.842167017538799</v>
+        <v>4.842167017538941</v>
       </c>
       <c r="L24">
         <v>5.024239033182269</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.907949980461524</v>
+        <v>1.907949980461694</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1943270631474121</v>
+        <v>0.1943270631474263</v>
       </c>
       <c r="E25">
-        <v>1.36843670995853</v>
+        <v>1.368436709958544</v>
       </c>
       <c r="F25">
-        <v>2.606431653019484</v>
+        <v>2.606431653019456</v>
       </c>
       <c r="G25">
         <v>2.360161183255926</v>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.7549272351231622</v>
+        <v>0.7549272351231906</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_9/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.582691456691549</v>
+        <v>1.582621889528156</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1549334201204715</v>
+        <v>0.1544421539438048</v>
       </c>
       <c r="E2">
-        <v>1.144000461329298</v>
+        <v>1.143571932032131</v>
       </c>
       <c r="F2">
-        <v>2.080410811338538</v>
+        <v>2.075694446651823</v>
       </c>
       <c r="G2">
-        <v>1.880065385648081</v>
+        <v>0.63747516333882</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.240993695142762</v>
       </c>
       <c r="I2">
-        <v>0.6331488345306937</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.633205492699588</v>
       </c>
       <c r="K2">
-        <v>3.194103937109475</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>3.320190622477654</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>3.19373704147506</v>
+      </c>
+      <c r="M2">
+        <v>3.319873303335214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.36847225323271</v>
+        <v>1.368430218472326</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1302713353338447</v>
+        <v>0.1298625626662897</v>
       </c>
       <c r="E3">
-        <v>0.9957689564974856</v>
+        <v>0.9954206846716716</v>
       </c>
       <c r="F3">
-        <v>1.762880253877498</v>
+        <v>1.758938489269894</v>
       </c>
       <c r="G3">
-        <v>1.588964843669601</v>
+        <v>0.5351669925030791</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.053231487657229</v>
       </c>
       <c r="I3">
-        <v>0.5527482524062606</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.5528063724412107</v>
       </c>
       <c r="K3">
-        <v>2.749883947463601</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>2.859684334523081</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>2.749629243129291</v>
+      </c>
+      <c r="M3">
+        <v>2.859468347196369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.239203432081439</v>
+        <v>1.239174698512898</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.115863605345595</v>
+        <v>0.1155019638369907</v>
       </c>
       <c r="E4">
-        <v>0.9060931719826186</v>
+        <v>0.9057908052422903</v>
       </c>
       <c r="F4">
-        <v>1.582666624692095</v>
+        <v>1.579160118741328</v>
       </c>
       <c r="G4">
-        <v>1.423148997589607</v>
+        <v>0.4766151235719036</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.9465525578272747</v>
       </c>
       <c r="I4">
-        <v>0.5041298215107872</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.5041877907385199</v>
       </c>
       <c r="K4">
-        <v>2.482351752112521</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>2.582167089838109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>2.482154459264166</v>
+      </c>
+      <c r="M4">
+        <v>2.582002420325864</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.186993012324336</v>
+        <v>1.186968964926166</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1101441032481176</v>
+        <v>0.1098009538387714</v>
       </c>
       <c r="E5">
-        <v>0.8698155962685377</v>
+        <v>0.8695312899004932</v>
       </c>
       <c r="F5">
-        <v>1.512383007146923</v>
+        <v>1.509045638222034</v>
       </c>
       <c r="G5">
-        <v>1.358333041000662</v>
+        <v>0.453660606863167</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.9049197955590955</v>
       </c>
       <c r="I5">
-        <v>0.4844678752952731</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4845255871273082</v>
       </c>
       <c r="K5">
-        <v>2.374380271053383</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>2.470134062143146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>2.374204075941989</v>
+      </c>
+      <c r="M5">
+        <v>2.469988113261252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.178349049194736</v>
+        <v>1.178325739944029</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1092026834866004</v>
+        <v>0.1088625659231468</v>
       </c>
       <c r="E6">
-        <v>0.8638059337404513</v>
+        <v>0.8635245923735368</v>
       </c>
       <c r="F6">
-        <v>1.50088836571193</v>
+        <v>1.497578633262961</v>
       </c>
       <c r="G6">
-        <v>1.347723779487922</v>
+        <v>0.4498993322400793</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.8981092491527676</v>
       </c>
       <c r="I6">
-        <v>0.4812111171166364</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4812687760666918</v>
       </c>
       <c r="K6">
-        <v>2.356508158285578</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>2.451588064651091</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>2.35633534249213</v>
+      </c>
+      <c r="M6">
+        <v>2.451445105817982</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.238497534645063</v>
+        <v>1.238468867047743</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1157858954840947</v>
+        <v>0.1154245060563426</v>
       </c>
       <c r="E7">
-        <v>0.9056029284427609</v>
+        <v>0.9053008076512015</v>
       </c>
       <c r="F7">
-        <v>1.581706653513876</v>
+        <v>1.578202459696243</v>
       </c>
       <c r="G7">
-        <v>1.422264309083459</v>
+        <v>0.4763020854133231</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.9459840283077199</v>
       </c>
       <c r="I7">
-        <v>0.5038640900704863</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.5039220565419171</v>
       </c>
       <c r="K7">
-        <v>2.48089167836946</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>2.580652206626823</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>2.480694678670972</v>
+      </c>
+      <c r="M7">
+        <v>2.580487797820751</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.508293570574835</v>
+        <v>1.508234360644991</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1462557358826615</v>
+        <v>0.1457937583111146</v>
       </c>
       <c r="E8">
-        <v>1.092566212778408</v>
+        <v>1.092166192359329</v>
       </c>
       <c r="F8">
-        <v>1.967502639220157</v>
+        <v>1.96306301422463</v>
       </c>
       <c r="G8">
-        <v>1.776689663929801</v>
+        <v>0.6012050101670354</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.174254652117725</v>
       </c>
       <c r="I8">
-        <v>0.6052469835270884</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.6053044094314899</v>
       </c>
       <c r="K8">
-        <v>3.039682050835722</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>3.160152867561834</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>3.039356617223007</v>
+      </c>
+      <c r="M8">
+        <v>3.159873120990937</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.060778815503227</v>
+        <v>2.060620689825441</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2136904617952524</v>
+        <v>0.2129932045759659</v>
       </c>
       <c r="E9">
-        <v>1.473729597424665</v>
+        <v>1.473098659652265</v>
       </c>
       <c r="F9">
-        <v>2.871776227961192</v>
+        <v>2.865067788290901</v>
       </c>
       <c r="G9">
-        <v>2.601594968334936</v>
+        <v>0.8892247012782661</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.708179053585241</v>
       </c>
       <c r="I9">
-        <v>0.8120624820775646</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.8121063262869086</v>
       </c>
       <c r="K9">
-        <v>4.191363292721348</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>4.352295959838443</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>4.190659210160021</v>
+      </c>
+      <c r="M9">
+        <v>4.351670154063612</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.490431017588151</v>
+        <v>2.490155299083483</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2713076204262137</v>
+        <v>0.2703944783695817</v>
       </c>
       <c r="E10">
-        <v>1.769590744939109</v>
+        <v>1.7687419174665</v>
       </c>
       <c r="F10">
-        <v>3.681424026105645</v>
+        <v>3.672555845415673</v>
       </c>
       <c r="G10">
-        <v>3.336130464259796</v>
+        <v>1.143739631103983</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.185461590151505</v>
       </c>
       <c r="I10">
-        <v>0.9725569064862043</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.9725743775059925</v>
       </c>
       <c r="K10">
-        <v>5.097315973688268</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>5.287269859413385</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>5.096183598127936</v>
+      </c>
+      <c r="M10">
+        <v>5.286248774666461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.693901988529092</v>
+        <v>2.693555129172353</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3003773009238131</v>
+        <v>0.2993494479086678</v>
       </c>
       <c r="E11">
-        <v>1.909801059769521</v>
+        <v>1.908833555819641</v>
       </c>
       <c r="F11">
-        <v>4.098933640638563</v>
+        <v>4.088892221169147</v>
       </c>
       <c r="G11">
-        <v>3.71396046938959</v>
+        <v>1.274161593930899</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.431410999979818</v>
       </c>
       <c r="I11">
-        <v>1.048562137026536</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.048560672857988</v>
       </c>
       <c r="K11">
-        <v>5.530485944398009</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>5.733241642724323</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>5.529098772574429</v>
+      </c>
+      <c r="M11">
+        <v>5.731984606888489</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.772426381683431</v>
+        <v>2.772048972924097</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3119300160351628</v>
+        <v>0.3108554029537203</v>
       </c>
       <c r="E12">
-        <v>1.963957062320318</v>
+        <v>1.962940578979001</v>
       </c>
       <c r="F12">
-        <v>4.266202880228406</v>
+        <v>4.255678508953793</v>
       </c>
       <c r="G12">
-        <v>3.865193476649623</v>
+        <v>1.326286887335669</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2.529923743301978</v>
       </c>
       <c r="I12">
-        <v>1.077904856798312</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1.077894755061635</v>
       </c>
       <c r="K12">
-        <v>5.698476688811638</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>5.905988510475339</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>5.696980671256938</v>
+      </c>
+      <c r="M12">
+        <v>5.904630572398077</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.755443043028606</v>
+        <v>2.75507239687937</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3094150627932919</v>
+        <v>0.3083506878909787</v>
       </c>
       <c r="E13">
-        <v>1.952241476666643</v>
+        <v>1.951235747464651</v>
       </c>
       <c r="F13">
-        <v>4.229729656755552</v>
+        <v>4.219311254456613</v>
       </c>
       <c r="G13">
-        <v>3.832223128346797</v>
+        <v>1.314926623772251</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2.508443941266393</v>
       </c>
       <c r="I13">
-        <v>1.071557900272921</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1.071549734096749</v>
       </c>
       <c r="K13">
-        <v>5.662102735306007</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>5.868595030020487</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>5.660630788670659</v>
+      </c>
+      <c r="M13">
+        <v>5.867259410696192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.700330515475059</v>
+        <v>2.699981223121597</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3013158992110476</v>
+        <v>0.3002842727608481</v>
       </c>
       <c r="E14">
-        <v>1.914233494876143</v>
+        <v>1.913262051416297</v>
       </c>
       <c r="F14">
-        <v>4.112496726795797</v>
+        <v>4.102416432824555</v>
       </c>
       <c r="G14">
-        <v>3.726225998230419</v>
+        <v>1.278390726130894</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2.439399389997092</v>
       </c>
       <c r="I14">
-        <v>1.050964041535565</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1.050961899681809</v>
       </c>
       <c r="K14">
-        <v>5.544220906816093</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>5.747369982005722</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>5.542825055762137</v>
+      </c>
+      <c r="M14">
+        <v>5.746104902349373</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.666775611845139</v>
+        <v>2.666438888800883</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.296430619898203</v>
+        <v>0.2954185848924595</v>
       </c>
       <c r="E15">
-        <v>1.891099610774049</v>
+        <v>1.890148596179372</v>
       </c>
       <c r="F15">
-        <v>4.041956093992013</v>
+        <v>4.032077443331247</v>
       </c>
       <c r="G15">
-        <v>3.662428364486232</v>
+        <v>1.256390278431894</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2.397851437627281</v>
       </c>
       <c r="I15">
-        <v>1.038427343516688</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1.038428682805801</v>
       </c>
       <c r="K15">
-        <v>5.472563075465104</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>5.67365112361901</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>5.471212084418141</v>
+      </c>
+      <c r="M15">
+        <v>5.672427615694545</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.477320544386544</v>
+        <v>2.477049038972893</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2694757902163332</v>
+        <v>0.26856974060982</v>
       </c>
       <c r="E16">
-        <v>1.76056069445066</v>
+        <v>1.759719136401529</v>
       </c>
       <c r="F16">
-        <v>3.655292623365852</v>
+        <v>3.646496426401598</v>
       </c>
       <c r="G16">
-        <v>3.312464202597226</v>
+        <v>1.135560341066622</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2.170064743931462</v>
       </c>
       <c r="I16">
-        <v>0.9676603528531587</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.9676788864394865</v>
       </c>
       <c r="K16">
-        <v>5.069504195280018</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>5.258610813064735</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>5.068386982627004</v>
+      </c>
+      <c r="M16">
+        <v>5.257603755976817</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.363352042026236</v>
+        <v>2.36311540175609</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2537539004755303</v>
+        <v>0.2529080852682029</v>
       </c>
       <c r="E17">
-        <v>1.682076268813304</v>
+        <v>1.681296134412619</v>
       </c>
       <c r="F17">
-        <v>3.431977655313233</v>
+        <v>3.423790081490893</v>
       </c>
       <c r="G17">
-        <v>3.110116543320999</v>
+        <v>1.065574554296134</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2.038467906064781</v>
       </c>
       <c r="I17">
-        <v>0.9250957068625354</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.9251227409238112</v>
       </c>
       <c r="K17">
-        <v>4.828210943583542</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>5.009844913134415</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>4.827219618718459</v>
+      </c>
+      <c r="M17">
+        <v>5.008954242422675</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.298531766522217</v>
+        <v>2.298313603521592</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2449701443430712</v>
+        <v>0.244157495252054</v>
       </c>
       <c r="E18">
-        <v>1.637444446445087</v>
+        <v>1.636697897319863</v>
       </c>
       <c r="F18">
-        <v>3.308006695016132</v>
+        <v>3.300152114989118</v>
       </c>
       <c r="G18">
-        <v>2.997702960987368</v>
+        <v>1.026651407816559</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.965398377324689</v>
       </c>
       <c r="I18">
-        <v>0.9008859633006523</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.900917271031517</v>
       </c>
       <c r="K18">
-        <v>4.691337407119306</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>4.868638357910484</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>4.690413141674895</v>
+      </c>
+      <c r="M18">
+        <v>4.86780962141016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.276701952970939</v>
+        <v>2.276489800747015</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2420372359007956</v>
+        <v>0.2412355850041621</v>
       </c>
       <c r="E19">
-        <v>1.622414014565919</v>
+        <v>1.621678566458172</v>
       </c>
       <c r="F19">
-        <v>3.266747273026795</v>
+        <v>3.259002775032059</v>
       </c>
       <c r="G19">
-        <v>2.960275969320691</v>
+        <v>1.013685160902014</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.941077148853495</v>
       </c>
       <c r="I19">
-        <v>0.8927323518086894</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.8927650118015436</v>
       </c>
       <c r="K19">
-        <v>4.645298724570324</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>4.821127401240162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>4.644396334096513</v>
+      </c>
+      <c r="M19">
+        <v>4.820318856727809</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.375406440711345</v>
+        <v>2.375166258405272</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2553998845638716</v>
+        <v>0.2545478160011783</v>
       </c>
       <c r="E20">
-        <v>1.690376659818398</v>
+        <v>1.689590174466673</v>
       </c>
       <c r="F20">
-        <v>3.455273825083168</v>
+        <v>3.447023295162666</v>
       </c>
       <c r="G20">
-        <v>3.131234078531222</v>
+        <v>1.072882984506492</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.052197621856706</v>
       </c>
       <c r="I20">
-        <v>0.9295977779800637</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.9296239735856915</v>
       </c>
       <c r="K20">
-        <v>4.85369327181661</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>5.036126535980372</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>4.852689121316587</v>
+      </c>
+      <c r="M20">
+        <v>5.035224014419626</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.7164753615628</v>
+        <v>2.716119906153267</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3036787369052263</v>
+        <v>0.3026375912953796</v>
       </c>
       <c r="E21">
-        <v>1.925366132841802</v>
+        <v>1.924384741121941</v>
       </c>
       <c r="F21">
-        <v>4.146661860431038</v>
+        <v>4.136483421194413</v>
       </c>
       <c r="G21">
-        <v>3.757120419346847</v>
+        <v>1.289041808555282</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.459521618219199</v>
       </c>
       <c r="I21">
-        <v>1.056996485514247</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1.056992618901262</v>
       </c>
       <c r="K21">
-        <v>5.57872931290828</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>5.782863209370191</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>5.577311484966685</v>
+      </c>
+      <c r="M21">
+        <v>5.781577760141317</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.948202147205166</v>
+        <v>2.947749379717038</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.3385075419484593</v>
+        <v>0.3373226572741999</v>
       </c>
       <c r="E22">
-        <v>2.085315690338945</v>
+        <v>2.08418231004319</v>
       </c>
       <c r="F22">
-        <v>4.653511340858728</v>
+        <v>4.641837808473269</v>
       </c>
       <c r="G22">
-        <v>4.215112048040993</v>
+        <v>1.446738474911086</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.757987221853085</v>
       </c>
       <c r="I22">
-        <v>1.143623329431477</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.143590845518219</v>
       </c>
       <c r="K22">
-        <v>6.076330664580979</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>6.29408427068023</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>6.074567160298898</v>
+      </c>
+      <c r="M22">
+        <v>6.292478175117083</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.82358565467689</v>
+        <v>2.82318733990752</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.3195612663681686</v>
+        <v>0.3184553830011794</v>
       </c>
       <c r="E23">
-        <v>1.999257952857207</v>
+        <v>1.998208518972135</v>
       </c>
       <c r="F23">
-        <v>4.377070430270038</v>
+        <v>4.36622162641666</v>
       </c>
       <c r="G23">
-        <v>3.965393241400633</v>
+        <v>1.360799806445726</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.595212632764856</v>
       </c>
       <c r="I23">
-        <v>1.097026517988297</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.097010352563117</v>
       </c>
       <c r="K23">
-        <v>5.808186053318508</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>6.018737826928145</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>5.806615699903546</v>
+      </c>
+      <c r="M23">
+        <v>6.017310949390719</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.36995448421527</v>
+        <v>2.369715908071498</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2546549503661453</v>
+        <v>0.2538057134387088</v>
       </c>
       <c r="E24">
-        <v>1.686622544976217</v>
+        <v>1.685838936188091</v>
       </c>
       <c r="F24">
-        <v>3.444728020145902</v>
+        <v>3.436506004585823</v>
       </c>
       <c r="G24">
-        <v>3.121674766921487</v>
+        <v>1.069574799262838</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.045982445465683</v>
       </c>
       <c r="I24">
-        <v>0.9275615871917751</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.9275881637418877</v>
       </c>
       <c r="K24">
-        <v>4.842167017538941</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>5.024239033182269</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>4.841168681809535</v>
+      </c>
+      <c r="M24">
+        <v>5.023341884658421</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.907949980461694</v>
+        <v>1.907824541505505</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1943270631474263</v>
+        <v>0.1936991981898615</v>
       </c>
       <c r="E25">
-        <v>1.368436709958544</v>
+        <v>1.367874446418455</v>
       </c>
       <c r="F25">
-        <v>2.606431653019456</v>
+        <v>2.600402545312903</v>
       </c>
       <c r="G25">
-        <v>2.360161183255926</v>
+        <v>0.8052193822666993</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.551627327211477</v>
       </c>
       <c r="I25">
-        <v>0.7549272351231906</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.7549768079912127</v>
       </c>
       <c r="K25">
-        <v>3.871515578700553</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>4.021566343690608</v>
+        <v>3.870933515543527</v>
+      </c>
+      <c r="M25">
+        <v>4.021052603358299</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_9/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.582621889528156</v>
+        <v>2.832474985958413</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1544421539438048</v>
+        <v>0.3004378388330338</v>
       </c>
       <c r="E2">
-        <v>1.143571932032131</v>
+        <v>0.2884581209956636</v>
       </c>
       <c r="F2">
-        <v>2.075694446651823</v>
+        <v>2.693825515440267</v>
       </c>
       <c r="G2">
-        <v>0.63747516333882</v>
+        <v>0.0007773836440335853</v>
       </c>
       <c r="H2">
-        <v>1.240993695142762</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.633205492699588</v>
+        <v>0.3489260531760721</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>3.19373704147506</v>
+        <v>1.868424025399719</v>
       </c>
       <c r="M2">
-        <v>3.319873303335214</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.9166027848332483</v>
+      </c>
+      <c r="O2">
+        <v>2.410186242554772</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.368430218472326</v>
+        <v>2.486522330905927</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1298625626662897</v>
+        <v>0.2586095646192916</v>
       </c>
       <c r="E3">
-        <v>0.9954206846716716</v>
+        <v>0.2531364110964773</v>
       </c>
       <c r="F3">
-        <v>1.758938489269894</v>
+        <v>2.438263795274807</v>
       </c>
       <c r="G3">
-        <v>0.5351669925030791</v>
+        <v>0.000788900222319496</v>
       </c>
       <c r="H3">
-        <v>1.053231487657229</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5528063724412107</v>
+        <v>0.31097415069992</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.749629243129291</v>
+        <v>1.617214614924904</v>
       </c>
       <c r="M3">
-        <v>2.859468347196369</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0.9745409414983399</v>
+      </c>
+      <c r="O3">
+        <v>2.152471435619347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.239174698512898</v>
+        <v>2.278009277544015</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1155019638369907</v>
+        <v>0.2335022833200213</v>
       </c>
       <c r="E4">
-        <v>0.9057908052422903</v>
+        <v>0.2317656438677886</v>
       </c>
       <c r="F4">
-        <v>1.579160118741328</v>
+        <v>2.289264710895807</v>
       </c>
       <c r="G4">
-        <v>0.4766151235719036</v>
+        <v>0.0007961322385435023</v>
       </c>
       <c r="H4">
-        <v>0.9465525578272747</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5041877907385199</v>
+        <v>0.2879215396175425</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>2.482154459264166</v>
+        <v>1.465628495170023</v>
       </c>
       <c r="M4">
-        <v>2.582002420325864</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1.011674981048699</v>
+      </c>
+      <c r="O4">
+        <v>2.001320114607068</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.186968964926166</v>
+        <v>2.19389459915817</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1098009538387714</v>
+        <v>0.2233896916035434</v>
       </c>
       <c r="E5">
-        <v>0.8695312899004932</v>
+        <v>0.2231202134721642</v>
       </c>
       <c r="F5">
-        <v>1.509045638222034</v>
+        <v>2.230320750855327</v>
       </c>
       <c r="G5">
-        <v>0.453660606863167</v>
+        <v>0.0007991229936164644</v>
       </c>
       <c r="H5">
-        <v>0.9049197955590955</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4845255871273082</v>
+        <v>0.2785760545758507</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2.374204075941989</v>
+        <v>1.404422461266876</v>
       </c>
       <c r="M5">
-        <v>2.469988113261252</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1.02718870585543</v>
+      </c>
+      <c r="O5">
+        <v>1.941300946321448</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.178325739944029</v>
+        <v>2.179975696499525</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1088625659231468</v>
+        <v>0.2217169799056222</v>
       </c>
       <c r="E6">
-        <v>0.8635245923735368</v>
+        <v>0.2216880289485061</v>
       </c>
       <c r="F6">
-        <v>1.497578633262961</v>
+        <v>2.220634415268719</v>
       </c>
       <c r="G6">
-        <v>0.4498993322400793</v>
+        <v>0.0007996223305027916</v>
       </c>
       <c r="H6">
-        <v>0.8981092491527676</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4812687760666918</v>
+        <v>0.2770267973760951</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>2.35633534249213</v>
+        <v>1.39429069604563</v>
       </c>
       <c r="M6">
-        <v>2.451445105817982</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1.029787476906662</v>
+      </c>
+      <c r="O6">
+        <v>1.931424399463765</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.238468867047743</v>
+        <v>2.276871567973558</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1154245060563426</v>
+        <v>0.2333654522794859</v>
       </c>
       <c r="E7">
-        <v>0.9053008076512015</v>
+        <v>0.2316488123869149</v>
       </c>
       <c r="F7">
-        <v>1.578202459696243</v>
+        <v>2.288462857357942</v>
       </c>
       <c r="G7">
-        <v>0.4763020854133231</v>
+        <v>0.0007961723920137377</v>
       </c>
       <c r="H7">
-        <v>0.9459840283077199</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5039220565419171</v>
+        <v>0.287795323779207</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2.480694678670972</v>
+        <v>1.464800881790438</v>
       </c>
       <c r="M7">
-        <v>2.580487797820751</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1.011882674399462</v>
+      </c>
+      <c r="O7">
+        <v>2.000504549347582</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.508234360644991</v>
+        <v>2.712300687648963</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1457937583111146</v>
+        <v>0.2858794554501429</v>
       </c>
       <c r="E8">
-        <v>1.092166192359329</v>
+        <v>0.2762029400837704</v>
       </c>
       <c r="F8">
-        <v>1.96306301422463</v>
+        <v>2.603927037772991</v>
       </c>
       <c r="G8">
-        <v>0.6012050101670354</v>
+        <v>0.0007813232329120626</v>
       </c>
       <c r="H8">
-        <v>1.174254652117725</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.6053044094314899</v>
+        <v>0.3357792223813618</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>3.039356617223007</v>
+        <v>1.781190599252398</v>
       </c>
       <c r="M8">
-        <v>3.159873120990937</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0.9362492576217498</v>
+      </c>
+      <c r="O8">
+        <v>2.319724359840464</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.060620689825441</v>
+        <v>3.603600327001345</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2129932045759659</v>
+        <v>0.3947802501886031</v>
       </c>
       <c r="E9">
-        <v>1.473098659652265</v>
+        <v>0.3669474875933645</v>
       </c>
       <c r="F9">
-        <v>2.865067788290901</v>
+        <v>3.296520708833214</v>
       </c>
       <c r="G9">
-        <v>0.8892247012782661</v>
+        <v>0.0007533143290763054</v>
       </c>
       <c r="H9">
-        <v>1.708179053585241</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.8121063262869086</v>
+        <v>0.4326090624553842</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>4.190659210160021</v>
+        <v>2.427996751433966</v>
       </c>
       <c r="M9">
-        <v>4.351670154063612</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.8008521358516063</v>
+      </c>
+      <c r="O9">
+        <v>3.012567071277687</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.490155299083483</v>
+        <v>4.291715578098888</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2703944783695817</v>
+        <v>0.4806489709162634</v>
       </c>
       <c r="E10">
-        <v>1.7687419174665</v>
+        <v>0.4371057328464119</v>
       </c>
       <c r="F10">
-        <v>3.672555845415673</v>
+        <v>3.86862660253064</v>
       </c>
       <c r="G10">
-        <v>1.143739631103983</v>
+        <v>0.000733143827642567</v>
       </c>
       <c r="H10">
-        <v>2.185461590151505</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.9725743775059925</v>
+        <v>0.5066685501435586</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>5.096183598127936</v>
+        <v>2.927939809562304</v>
       </c>
       <c r="M10">
-        <v>5.286248774666461</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0.7101013400236482</v>
+      </c>
+      <c r="O10">
+        <v>3.579694658181637</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.693555129172353</v>
+        <v>4.614824411532027</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2993494479086678</v>
+        <v>0.5216188346147703</v>
       </c>
       <c r="E11">
-        <v>1.908833555819641</v>
+        <v>0.4701840674172431</v>
       </c>
       <c r="F11">
-        <v>4.088892221169147</v>
+        <v>4.147616761740068</v>
       </c>
       <c r="G11">
-        <v>1.274161593930899</v>
+        <v>0.0007239825079250799</v>
       </c>
       <c r="H11">
-        <v>2.431410999979818</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.048560672857988</v>
+        <v>0.5413481192809684</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.529098772574429</v>
+        <v>3.16313946229468</v>
       </c>
       <c r="M11">
-        <v>5.731984606888489</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0.6709334303314449</v>
+      </c>
+      <c r="O11">
+        <v>3.855086546066474</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.772048972924097</v>
+        <v>4.738914404163552</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3108554029537203</v>
+        <v>0.5374737233558164</v>
       </c>
       <c r="E12">
-        <v>1.962940578979001</v>
+        <v>0.4829195438988378</v>
       </c>
       <c r="F12">
-        <v>4.255678508953793</v>
+        <v>4.256468648271408</v>
       </c>
       <c r="G12">
-        <v>1.326286887335669</v>
+        <v>0.0007205078777104771</v>
       </c>
       <c r="H12">
-        <v>2.529923743301978</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.077894755061635</v>
+        <v>0.5546597958702222</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.696980671256938</v>
+        <v>3.253566782099085</v>
       </c>
       <c r="M12">
-        <v>5.904630572398077</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0.6564277483165881</v>
+      </c>
+      <c r="O12">
+        <v>3.962363427020478</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.75507239687937</v>
+        <v>4.71210709562331</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3083506878909787</v>
+        <v>0.5340427429920283</v>
       </c>
       <c r="E13">
-        <v>1.951235747464651</v>
+        <v>0.4801666488374465</v>
       </c>
       <c r="F13">
-        <v>4.219311254456613</v>
+        <v>4.232873762556324</v>
       </c>
       <c r="G13">
-        <v>1.314926623772251</v>
+        <v>0.000721256578269486</v>
       </c>
       <c r="H13">
-        <v>2.508443941266393</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.071549734096749</v>
+        <v>0.5517842411221494</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.660630788670659</v>
+        <v>3.234026645339839</v>
       </c>
       <c r="M13">
-        <v>5.867259410696192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0.6595369030470906</v>
+      </c>
+      <c r="O13">
+        <v>3.93911755386452</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.699981223121597</v>
+        <v>4.624996761307102</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3002842727608481</v>
+        <v>0.5229159736345537</v>
       </c>
       <c r="E14">
-        <v>1.913262051416297</v>
+        <v>0.4712273520902386</v>
       </c>
       <c r="F14">
-        <v>4.102416432824555</v>
+        <v>4.156504584237439</v>
       </c>
       <c r="G14">
-        <v>1.278390726130894</v>
+        <v>0.0007236968050085088</v>
       </c>
       <c r="H14">
-        <v>2.439399389997092</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.050961899681809</v>
+        <v>0.5424394461614241</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.542825055762137</v>
+        <v>3.170550099661398</v>
       </c>
       <c r="M14">
-        <v>5.746104902349373</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0.6697333596819277</v>
+      </c>
+      <c r="O14">
+        <v>3.863849177548332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.666438888800883</v>
+        <v>4.57187456825767</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2954185848924595</v>
+        <v>0.5161470453697348</v>
       </c>
       <c r="E15">
-        <v>1.890148596179372</v>
+        <v>0.4657804510154975</v>
       </c>
       <c r="F15">
-        <v>4.032077443331247</v>
+        <v>4.110160339123041</v>
       </c>
       <c r="G15">
-        <v>1.256390278431894</v>
+        <v>0.0007251905593440331</v>
       </c>
       <c r="H15">
-        <v>2.397851437627281</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.038428682805801</v>
+        <v>0.5367400666439153</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.471212084418141</v>
+        <v>3.131854356091367</v>
       </c>
       <c r="M15">
-        <v>5.672427615694545</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0.6760221991684219</v>
+      </c>
+      <c r="O15">
+        <v>3.818150881035592</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.477049038972893</v>
+        <v>4.270825837017583</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.26856974060982</v>
+        <v>0.478015237141534</v>
       </c>
       <c r="E16">
-        <v>1.759719136401529</v>
+        <v>0.4349708015708131</v>
       </c>
       <c r="F16">
-        <v>3.646496426401598</v>
+        <v>3.850812453261312</v>
       </c>
       <c r="G16">
-        <v>1.135560341066622</v>
+        <v>0.0007337422202314351</v>
       </c>
       <c r="H16">
-        <v>2.170064743931462</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.9676788864394865</v>
+        <v>0.5044250614550805</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.068386982627004</v>
+        <v>2.912745244730615</v>
       </c>
       <c r="M16">
-        <v>5.257603755976817</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0.7127054428240527</v>
+      </c>
+      <c r="O16">
+        <v>3.562087126854266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.36311540175609</v>
+        <v>4.088912532586392</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2529080852682029</v>
+        <v>0.4551542480867568</v>
       </c>
       <c r="E17">
-        <v>1.681296134412619</v>
+        <v>0.4163953666000779</v>
       </c>
       <c r="F17">
-        <v>3.423790081490893</v>
+        <v>3.696844183667281</v>
       </c>
       <c r="G17">
-        <v>1.065574554296134</v>
+        <v>0.0007389871458910822</v>
       </c>
       <c r="H17">
-        <v>2.038467906064781</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.9251227409238112</v>
+        <v>0.4848783127180525</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>4.827219618718459</v>
+        <v>2.780479836672953</v>
       </c>
       <c r="M17">
-        <v>5.008954242422675</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0.735765980272852</v>
+      </c>
+      <c r="O17">
+        <v>3.409778160722539</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.298313603521592</v>
+        <v>3.985209985539313</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.244157495252054</v>
+        <v>0.4421801233185221</v>
       </c>
       <c r="E18">
-        <v>1.636697897319863</v>
+        <v>0.4058177624968167</v>
       </c>
       <c r="F18">
-        <v>3.300152114989118</v>
+        <v>3.610013799092712</v>
       </c>
       <c r="G18">
-        <v>1.026651407816559</v>
+        <v>0.0007420057598483841</v>
       </c>
       <c r="H18">
-        <v>1.965398377324689</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.900917271031517</v>
+        <v>0.4737260722450998</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>4.690413141674895</v>
+        <v>2.705118863273441</v>
       </c>
       <c r="M18">
-        <v>4.86780962141016</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0.7492273724193481</v>
+      </c>
+      <c r="O18">
+        <v>3.323778025263749</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.276489800747015</v>
+        <v>3.950249754974266</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2412355850041621</v>
+        <v>0.4378155441290943</v>
       </c>
       <c r="E19">
-        <v>1.621678566458172</v>
+        <v>0.4022535081712064</v>
       </c>
       <c r="F19">
-        <v>3.259002775032059</v>
+        <v>3.580897266029808</v>
       </c>
       <c r="G19">
-        <v>1.013685160902014</v>
+        <v>0.0007430283386708708</v>
       </c>
       <c r="H19">
-        <v>1.941077148853495</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.8927650118015436</v>
+        <v>0.4699646570976768</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>4.644396334096513</v>
+        <v>2.679718938340358</v>
       </c>
       <c r="M19">
-        <v>4.820318856727809</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0.7538184769386973</v>
+      </c>
+      <c r="O19">
+        <v>3.294921863991192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.375166258405272</v>
+        <v>4.10817943571152</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2545478160011783</v>
+        <v>0.4575692996497764</v>
       </c>
       <c r="E20">
-        <v>1.689590174466673</v>
+        <v>0.4183614530208999</v>
       </c>
       <c r="F20">
-        <v>3.447023295162666</v>
+        <v>3.71305211883967</v>
       </c>
       <c r="G20">
-        <v>1.072882984506492</v>
+        <v>0.0007384286708249771</v>
       </c>
       <c r="H20">
-        <v>2.052197621856706</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.9296239735856915</v>
+        <v>0.4869494837353443</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>4.852689121316587</v>
+        <v>2.794484130907733</v>
       </c>
       <c r="M20">
-        <v>5.035224014419626</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0.7332905469601627</v>
+      </c>
+      <c r="O20">
+        <v>3.425822448782213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.716119906153267</v>
+        <v>4.650533535230295</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3026375912953796</v>
+        <v>0.5261743386516571</v>
       </c>
       <c r="E21">
-        <v>1.924384741121941</v>
+        <v>0.4738469759369295</v>
       </c>
       <c r="F21">
-        <v>4.136483421194413</v>
+        <v>4.178844550294656</v>
       </c>
       <c r="G21">
-        <v>1.289041808555282</v>
+        <v>0.000722980265663588</v>
       </c>
       <c r="H21">
-        <v>2.459521618219199</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.056992618901262</v>
+        <v>0.545179039721674</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>5.577311484966685</v>
+        <v>3.189155542261801</v>
       </c>
       <c r="M21">
-        <v>5.781577760141317</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0.6667293628381046</v>
+      </c>
+      <c r="O21">
+        <v>3.885871755113698</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.947749379717038</v>
+        <v>5.015282820292668</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.3373226572741999</v>
+        <v>0.5730377594805418</v>
       </c>
       <c r="E22">
-        <v>2.08418231004319</v>
+        <v>0.511357155530078</v>
       </c>
       <c r="F22">
-        <v>4.641837808473269</v>
+        <v>4.502255809104071</v>
       </c>
       <c r="G22">
-        <v>1.446738474911086</v>
+        <v>0.0007128475603319018</v>
       </c>
       <c r="H22">
-        <v>2.757987221853085</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.143590845518219</v>
+        <v>0.5843036221472317</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.074567160298898</v>
+        <v>3.455186808561848</v>
       </c>
       <c r="M22">
-        <v>6.292478175117083</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0.6251428105654426</v>
+      </c>
+      <c r="O22">
+        <v>4.204279665264778</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.82318733990752</v>
+        <v>4.819559115307243</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.3184553830011794</v>
+        <v>0.547814826063302</v>
       </c>
       <c r="E23">
-        <v>1.998208518972135</v>
+        <v>0.4912067670172107</v>
       </c>
       <c r="F23">
-        <v>4.36622162641666</v>
+        <v>4.327712564884393</v>
       </c>
       <c r="G23">
-        <v>1.360799806445726</v>
+        <v>0.0007182617662852192</v>
       </c>
       <c r="H23">
-        <v>2.595212632764856</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.097010352563117</v>
+        <v>0.5633099820065297</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>5.806615699903546</v>
+        <v>3.312366832051453</v>
       </c>
       <c r="M23">
-        <v>6.017310949390719</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0.6471548903321462</v>
+      </c>
+      <c r="O23">
+        <v>4.032528762347056</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.369715908071498</v>
+        <v>4.09946614298309</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2538057134387088</v>
+        <v>0.4564769333438221</v>
       </c>
       <c r="E24">
-        <v>1.685838936188091</v>
+        <v>0.4174722717476556</v>
       </c>
       <c r="F24">
-        <v>3.436506004585823</v>
+        <v>3.70571929074535</v>
       </c>
       <c r="G24">
-        <v>1.069574799262838</v>
+        <v>0.0007386811467265451</v>
       </c>
       <c r="H24">
-        <v>2.045982445465683</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.9275881637418877</v>
+        <v>0.4860128438439091</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>4.841168681809535</v>
+        <v>2.788150688697527</v>
       </c>
       <c r="M24">
-        <v>5.023341884658421</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0.734409057908934</v>
+      </c>
+      <c r="O24">
+        <v>3.418563989326088</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.907824541505505</v>
+        <v>3.357484544460419</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1936991981898615</v>
+        <v>0.3644762956546543</v>
       </c>
       <c r="E25">
-        <v>1.367874446418455</v>
+        <v>0.3419042903095075</v>
       </c>
       <c r="F25">
-        <v>2.600402545312903</v>
+        <v>3.099527766013807</v>
       </c>
       <c r="G25">
-        <v>0.8052193822666993</v>
+        <v>0.0007607979875567938</v>
       </c>
       <c r="H25">
-        <v>1.551627327211477</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.7549768079912127</v>
+        <v>0.4060049672270054</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>3.870933515543527</v>
+        <v>2.249382638278092</v>
       </c>
       <c r="M25">
-        <v>4.021052603358299</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.8360162092624037</v>
+      </c>
+      <c r="O25">
+        <v>2.816347846138044</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_9/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.832474985958413</v>
+        <v>3.367692437884045</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3004378388330338</v>
+        <v>0.09990762057078229</v>
       </c>
       <c r="E2">
-        <v>0.2884581209956636</v>
+        <v>0.2020984614176484</v>
       </c>
       <c r="F2">
-        <v>2.693825515440267</v>
+        <v>0.3457134621992921</v>
       </c>
       <c r="G2">
-        <v>0.0007773836440335853</v>
+        <v>0.2979033436926812</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.2208113308651463</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.4010028004457382</v>
       </c>
       <c r="J2">
-        <v>0.3489260531760721</v>
+        <v>0.3940570735911848</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.868424025399719</v>
+        <v>1.825468488846667</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9166027848332483</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>2.410186242554772</v>
+        <v>1.045036783720008</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.486522330905927</v>
+        <v>2.936058881496024</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2586095646192916</v>
+        <v>0.102967291325843</v>
       </c>
       <c r="E3">
-        <v>0.2531364110964773</v>
+        <v>0.1922249737066224</v>
       </c>
       <c r="F3">
-        <v>2.438263795274807</v>
+        <v>0.3370445597733394</v>
       </c>
       <c r="G3">
-        <v>0.000788900222319496</v>
+        <v>0.2705444381976818</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.2142187459864928</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.4009231025220963</v>
       </c>
       <c r="J3">
-        <v>0.31097415069992</v>
+        <v>0.3633122161030968</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.617214614924904</v>
+        <v>1.590491705498209</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9745409414983399</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>2.152471435619347</v>
+        <v>0.9728432112340926</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.278009277544015</v>
+        <v>2.671071059084795</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2335022833200213</v>
+        <v>0.1050000618773943</v>
       </c>
       <c r="E4">
-        <v>0.2317656438677886</v>
+        <v>0.186310483057138</v>
       </c>
       <c r="F4">
-        <v>2.289264710895807</v>
+        <v>0.3330404777066462</v>
       </c>
       <c r="G4">
-        <v>0.0007961322385435023</v>
+        <v>0.254672291263077</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.2107520077888125</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.4022013562682574</v>
       </c>
       <c r="J4">
-        <v>0.2879215396175425</v>
+        <v>0.3446064074364301</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.465628495170023</v>
+        <v>1.44607417540962</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.011674981048699</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>2.001320114607068</v>
+        <v>0.9316859218039042</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.19389459915817</v>
+        <v>2.563065486680784</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2233896916035434</v>
+        <v>0.1058668735141524</v>
       </c>
       <c r="E5">
-        <v>0.2231202134721642</v>
+        <v>0.1839367517690746</v>
       </c>
       <c r="F5">
-        <v>2.230320750855327</v>
+        <v>0.3317229277142744</v>
       </c>
       <c r="G5">
-        <v>0.0007991229936164644</v>
+        <v>0.2484209975957299</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.2094781058434876</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.4030407290223117</v>
       </c>
       <c r="J5">
-        <v>0.2785760545758507</v>
+        <v>0.3370251917657043</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.404422461266876</v>
+        <v>1.387175382200269</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.02718870585543</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.941300946321448</v>
+        <v>0.9156614189174945</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.179975696499525</v>
+        <v>2.545129144524367</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2217169799056222</v>
+        <v>0.1060131197153353</v>
       </c>
       <c r="E6">
-        <v>0.2216880289485061</v>
+        <v>0.1835447787674873</v>
       </c>
       <c r="F6">
-        <v>2.220634415268719</v>
+        <v>0.3315226281654589</v>
       </c>
       <c r="G6">
-        <v>0.0007996223305027916</v>
+        <v>0.2473956062864673</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.2092747528029975</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.4031989100478448</v>
       </c>
       <c r="J6">
-        <v>0.2770267973760951</v>
+        <v>0.3357688024570535</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.39429069604563</v>
+        <v>1.377392082447045</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.029787476906662</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.931424399463765</v>
+        <v>0.9130442979874118</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.276871567973558</v>
+        <v>2.669614580939651</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2333654522794859</v>
+        <v>0.1050115967607645</v>
       </c>
       <c r="E7">
-        <v>0.2316488123869149</v>
+        <v>0.1862783233060021</v>
       </c>
       <c r="F7">
-        <v>2.288462857357942</v>
+        <v>0.3330214592744625</v>
       </c>
       <c r="G7">
-        <v>0.0007961723920137377</v>
+        <v>0.2545871274259</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.2107342748209362</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.4022114064428202</v>
       </c>
       <c r="J7">
-        <v>0.287795323779207</v>
+        <v>0.3445039982729128</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.464800881790438</v>
+        <v>1.445280053112384</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.011882674399462</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>2.000504549347582</v>
+        <v>0.9314668473577825</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.712300687648963</v>
+        <v>3.218838527235789</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2858794554501429</v>
+        <v>0.1009304153995636</v>
       </c>
       <c r="E8">
-        <v>0.2762029400837704</v>
+        <v>0.1986629398146036</v>
       </c>
       <c r="F8">
-        <v>2.603927037772991</v>
+        <v>0.3424399881791089</v>
       </c>
       <c r="G8">
-        <v>0.0007813232329120626</v>
+        <v>0.2882677341040818</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.2184130815676895</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.4006904315193722</v>
       </c>
       <c r="J8">
-        <v>0.3357792223813618</v>
+        <v>0.3834195879134654</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.781190599252398</v>
+        <v>1.744470070452707</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9362492576217498</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>2.319724359840464</v>
+        <v>1.019455884123204</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.603600327001345</v>
+        <v>4.297687521151659</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3947802501886031</v>
+        <v>0.09416471183480368</v>
       </c>
       <c r="E9">
-        <v>0.3669474875933645</v>
+        <v>0.2241594706630821</v>
       </c>
       <c r="F9">
-        <v>3.296520708833214</v>
+        <v>0.3722007875010362</v>
       </c>
       <c r="G9">
-        <v>0.0007533143290763054</v>
+        <v>0.3624383004723057</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.2384308157093642</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.4089672644543825</v>
       </c>
       <c r="J9">
-        <v>0.4326090624553842</v>
+        <v>0.4611803916994575</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>2.427996751433966</v>
+        <v>2.330689528226628</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8008521358516063</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>3.012567071277687</v>
+        <v>1.219522721603511</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.291715578098888</v>
+        <v>5.093808568327347</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.4806489709162634</v>
+        <v>0.08996932543576719</v>
       </c>
       <c r="E10">
-        <v>0.4371057328464119</v>
+        <v>0.2436884820771752</v>
       </c>
       <c r="F10">
-        <v>3.86862660253064</v>
+        <v>0.4021667044324673</v>
       </c>
       <c r="G10">
-        <v>0.000733143827642567</v>
+        <v>0.423025385155583</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.256676085116581</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.4229886721729059</v>
       </c>
       <c r="J10">
-        <v>0.5066685501435586</v>
+        <v>0.5193314009706569</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>2.927939809562304</v>
+        <v>2.762079178787758</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7101013400236482</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>3.579694658181637</v>
+        <v>1.386788847043135</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.614824411532027</v>
+        <v>5.457325299627996</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.5216188346147703</v>
+        <v>0.0882339422305165</v>
       </c>
       <c r="E11">
-        <v>0.4701840674172431</v>
+        <v>0.2527603517860229</v>
       </c>
       <c r="F11">
-        <v>4.147616761740068</v>
+        <v>0.4178465850596709</v>
       </c>
       <c r="G11">
-        <v>0.0007239825079250799</v>
+        <v>0.4521831179495308</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.2658672223255536</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.4313479612179947</v>
       </c>
       <c r="J11">
-        <v>0.5413481192809684</v>
+        <v>0.5460418849415305</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>3.16313946229468</v>
+        <v>2.95872641327361</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6709334303314449</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>3.855086546066474</v>
+        <v>1.468118752080585</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.738914404163552</v>
+        <v>5.595226118878259</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.5374737233558164</v>
+        <v>0.08760211992586875</v>
       </c>
       <c r="E12">
-        <v>0.4829195438988378</v>
+        <v>0.2562239605994634</v>
       </c>
       <c r="F12">
-        <v>4.256468648271408</v>
+        <v>0.4241045354427655</v>
       </c>
       <c r="G12">
-        <v>0.0007205078777104771</v>
+        <v>0.4634783046633402</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.2694868353032973</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.4348212858320295</v>
       </c>
       <c r="J12">
-        <v>0.5546597958702222</v>
+        <v>0.5561965018932113</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>3.253566782099085</v>
+        <v>3.033271580656162</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6564277483165881</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>3.962363427020478</v>
+        <v>1.499744431373387</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.71210709562331</v>
+        <v>5.56551498084167</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.5340427429920283</v>
+        <v>0.08773706047004026</v>
       </c>
       <c r="E13">
-        <v>0.4801666488374465</v>
+        <v>0.2554767312467305</v>
       </c>
       <c r="F13">
-        <v>4.232873762556324</v>
+        <v>0.42274209752091</v>
       </c>
       <c r="G13">
-        <v>0.000721256578269486</v>
+        <v>0.4610339921622995</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.2687009159102871</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.4340591683143984</v>
       </c>
       <c r="J13">
-        <v>0.5517842411221494</v>
+        <v>0.554007697554411</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>3.234026645339839</v>
+        <v>3.017213075508209</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6595369030470906</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>3.93911755386452</v>
+        <v>1.492895216535743</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.624996761307102</v>
+        <v>5.468665274790169</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.5229159736345537</v>
+        <v>0.08818145161871627</v>
       </c>
       <c r="E14">
-        <v>0.4712273520902386</v>
+        <v>0.2530447304700161</v>
       </c>
       <c r="F14">
-        <v>4.156504584237439</v>
+        <v>0.4183548565591835</v>
       </c>
       <c r="G14">
-        <v>0.0007236968050085088</v>
+        <v>0.4531071484317124</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.2661621560553442</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.4316274066034111</v>
       </c>
       <c r="J14">
-        <v>0.5424394461614241</v>
+        <v>0.5468764932032997</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>3.170550099661398</v>
+        <v>2.964857577736609</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6697333596819277</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>3.863849177548332</v>
+        <v>1.470703580070932</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.57187456825767</v>
+        <v>5.409375476045511</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.5161470453697348</v>
+        <v>0.08845696596742769</v>
       </c>
       <c r="E15">
-        <v>0.4657804510154975</v>
+        <v>0.2515587827603483</v>
       </c>
       <c r="F15">
-        <v>4.110160339123041</v>
+        <v>0.4157100560242171</v>
       </c>
       <c r="G15">
-        <v>0.0007251905593440331</v>
+        <v>0.4482855273417812</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2646255500677626</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.4301786826511247</v>
       </c>
       <c r="J15">
-        <v>0.5367400666439153</v>
+        <v>0.5425137173712784</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>3.131854356091367</v>
+        <v>2.932799275897708</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6760221991684219</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>3.818150881035592</v>
+        <v>1.457220665813907</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.270825837017583</v>
+        <v>5.07008336681821</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.478015237141534</v>
+        <v>0.09008625715967611</v>
       </c>
       <c r="E16">
-        <v>0.4349708015708131</v>
+        <v>0.2430995020815132</v>
       </c>
       <c r="F16">
-        <v>3.850812453261312</v>
+        <v>0.4011853668136212</v>
       </c>
       <c r="G16">
-        <v>0.0007337422202314351</v>
+        <v>0.4211540135470955</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.2560942767549221</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.42248416271552</v>
       </c>
       <c r="J16">
-        <v>0.5044250614550805</v>
+        <v>0.5175912304167838</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>2.912745244730615</v>
+        <v>2.749237720362373</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7127054428240527</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>3.562087126854266</v>
+        <v>1.381585416881933</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.088912532586392</v>
+        <v>4.862320400423073</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.4551542480867568</v>
+        <v>0.0911304178658412</v>
       </c>
       <c r="E17">
-        <v>0.4163953666000779</v>
+        <v>0.2379590213722693</v>
       </c>
       <c r="F17">
-        <v>3.696844183667281</v>
+        <v>0.3928173341125571</v>
       </c>
       <c r="G17">
-        <v>0.0007389871458910822</v>
+        <v>0.4049352757797777</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.2510964492858534</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.4182870376840242</v>
       </c>
       <c r="J17">
-        <v>0.4848783127180525</v>
+        <v>0.5023699968283069</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>2.780479836672953</v>
+        <v>2.636746813025894</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.735765980272852</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>3.409778160722539</v>
+        <v>1.336578893471227</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.985209985539313</v>
+        <v>4.742945172965392</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.4421801233185221</v>
+        <v>0.09174725902946435</v>
       </c>
       <c r="E18">
-        <v>0.4058177624968167</v>
+        <v>0.2350199693234316</v>
       </c>
       <c r="F18">
-        <v>3.610013799092712</v>
+        <v>0.3881954066517821</v>
       </c>
       <c r="G18">
-        <v>0.0007420057598483841</v>
+        <v>0.3957553940410747</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.2483050203083081</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.4160579431649225</v>
       </c>
       <c r="J18">
-        <v>0.4737260722450998</v>
+        <v>0.4936391720376463</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>2.705118863273441</v>
+        <v>2.572081875067227</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7492273724193481</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>3.323778025263749</v>
+        <v>1.311180761118948</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.950249754974266</v>
+        <v>4.702546711396394</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.4378155441290943</v>
+        <v>0.09195889187922646</v>
       </c>
       <c r="E19">
-        <v>0.4022535081712064</v>
+        <v>0.2340278460749019</v>
       </c>
       <c r="F19">
-        <v>3.580897266029808</v>
+        <v>0.3866625736393345</v>
       </c>
       <c r="G19">
-        <v>0.0007430283386708708</v>
+        <v>0.3926720741532819</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.2473738568816799</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.4153343058703527</v>
       </c>
       <c r="J19">
-        <v>0.4699646570976768</v>
+        <v>0.4906871062138407</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>2.679718938340358</v>
+        <v>2.550193165557118</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7538184769386973</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>3.294921863991192</v>
+        <v>1.302663098947818</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.10817943571152</v>
+        <v>4.884423886474565</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.4575692996497764</v>
+        <v>0.09101757845876435</v>
       </c>
       <c r="E20">
-        <v>0.4183614530208999</v>
+        <v>0.2385044023586715</v>
       </c>
       <c r="F20">
-        <v>3.71305211883967</v>
+        <v>0.3936881617234036</v>
       </c>
       <c r="G20">
-        <v>0.0007384286708249771</v>
+        <v>0.4066462274623035</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.2516197898668082</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.4187145225088003</v>
       </c>
       <c r="J20">
-        <v>0.4869494837353443</v>
+        <v>0.5039878160972364</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>2.794484130907733</v>
+        <v>2.648717703080877</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7332905469601627</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>3.425822448782213</v>
+        <v>1.341318842526164</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.650533535230295</v>
+        <v>5.497105317074897</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.5261743386516571</v>
+        <v>0.08805023215523278</v>
       </c>
       <c r="E21">
-        <v>0.4738469759369295</v>
+        <v>0.2537582897976023</v>
       </c>
       <c r="F21">
-        <v>4.178844550294656</v>
+        <v>0.4196345876817134</v>
       </c>
       <c r="G21">
-        <v>0.000722980265663588</v>
+        <v>0.4554283650329012</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.26690398408455</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.432333127881769</v>
       </c>
       <c r="J21">
-        <v>0.545179039721674</v>
+        <v>0.548969992150802</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>3.189155542261801</v>
+        <v>2.980233334428078</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6667293628381046</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>3.885871755113698</v>
+        <v>1.477198715710699</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.015282820292668</v>
+        <v>5.898981731163644</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.5730377594805418</v>
+        <v>0.08625875726956878</v>
       </c>
       <c r="E22">
-        <v>0.511357155530078</v>
+        <v>0.2638931339174633</v>
       </c>
       <c r="F22">
-        <v>4.502255809104071</v>
+        <v>0.4384724448862585</v>
       </c>
       <c r="G22">
-        <v>0.0007128475603319018</v>
+        <v>0.4888021129753781</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.2777097151896299</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.4430398764038941</v>
       </c>
       <c r="J22">
-        <v>0.5843036221472317</v>
+        <v>0.5786027866333256</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>3.455186808561848</v>
+        <v>3.197370160674723</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6251428105654426</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>4.204279665264778</v>
+        <v>1.570867658769146</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.819559115307243</v>
+        <v>5.684342190819223</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.547814826063302</v>
+        <v>0.08720122294150201</v>
       </c>
       <c r="E23">
-        <v>0.4912067670172107</v>
+        <v>0.2584683875253475</v>
       </c>
       <c r="F23">
-        <v>4.327712564884393</v>
+        <v>0.4282372716887508</v>
       </c>
       <c r="G23">
-        <v>0.0007182617662852192</v>
+        <v>0.4708449419187986</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.2718639363581303</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.4371521895316306</v>
       </c>
       <c r="J23">
-        <v>0.5633099820065297</v>
+        <v>0.5627647214926128</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>3.312366832051453</v>
+        <v>3.081429597476529</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6471548903321462</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>4.032528762347056</v>
+        <v>1.520403760837354</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.09946614298309</v>
+        <v>4.874430684645745</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.4564769333438221</v>
+        <v>0.09106854167146139</v>
       </c>
       <c r="E24">
-        <v>0.4174722717476556</v>
+        <v>0.2382577850031851</v>
       </c>
       <c r="F24">
-        <v>3.70571929074535</v>
+        <v>0.3932938739021097</v>
       </c>
       <c r="G24">
-        <v>0.0007386811467265451</v>
+        <v>0.4058722579742664</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.2513829333450701</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.4185206855676</v>
       </c>
       <c r="J24">
-        <v>0.4860128438439091</v>
+        <v>0.5032563377259152</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>2.788150688697527</v>
+        <v>2.643305641613779</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.734409057908934</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>3.418563989326088</v>
+        <v>1.339174432247347</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.357484544460419</v>
+        <v>4.005401087177063</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3644762956546543</v>
+        <v>0.09586042624025737</v>
       </c>
       <c r="E25">
-        <v>0.3419042903095075</v>
+        <v>0.2171266524062148</v>
       </c>
       <c r="F25">
-        <v>3.099527766013807</v>
+        <v>0.3628197902564452</v>
       </c>
       <c r="G25">
-        <v>0.0007607979875567938</v>
+        <v>0.3413901030257023</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.2324333953971518</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.4054159163247917</v>
       </c>
       <c r="J25">
-        <v>0.4060049672270054</v>
+        <v>0.4399756552181202</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>2.249382638278092</v>
+        <v>2.172056866355376</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8360162092624037</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>2.816347846138044</v>
+        <v>1.162105350916249</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_9/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.367692437884045</v>
+        <v>1.593749689512947</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.09990762057078229</v>
+        <v>0.278418623906763</v>
       </c>
       <c r="E2">
-        <v>0.2020984614176484</v>
+        <v>0.2587347637699864</v>
       </c>
       <c r="F2">
-        <v>0.3457134621992921</v>
+        <v>0.8642576633317063</v>
       </c>
       <c r="G2">
-        <v>0.2979033436926812</v>
+        <v>0.391028466203025</v>
       </c>
       <c r="H2">
-        <v>0.2208113308651463</v>
+        <v>0.543973131779353</v>
       </c>
       <c r="I2">
-        <v>0.4010028004457382</v>
+        <v>0.76626140285817</v>
       </c>
       <c r="J2">
-        <v>0.3940570735911848</v>
+        <v>0.3294975375461036</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.825468488846667</v>
+        <v>0.7101507023506031</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.045036783720008</v>
+        <v>1.813793148630253</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.936058881496024</v>
+        <v>1.451906098937059</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.102967291325843</v>
+        <v>0.2812223158753611</v>
       </c>
       <c r="E3">
-        <v>0.1922249737066224</v>
+        <v>0.2568917025592548</v>
       </c>
       <c r="F3">
-        <v>0.3370445597733394</v>
+        <v>0.8739634813138508</v>
       </c>
       <c r="G3">
-        <v>0.2705444381976818</v>
+        <v>0.3901157682615946</v>
       </c>
       <c r="H3">
-        <v>0.2142187459864928</v>
+        <v>0.5478918876989312</v>
       </c>
       <c r="I3">
-        <v>0.4009231025220963</v>
+        <v>0.7748952370540465</v>
       </c>
       <c r="J3">
-        <v>0.3633122161030968</v>
+        <v>0.3207478604866765</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.590491705498209</v>
+        <v>0.6323783755559589</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.9728432112340926</v>
+        <v>1.819763241671936</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.671071059084795</v>
+        <v>1.36451220110132</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1050000618773943</v>
+        <v>0.2830642500969525</v>
       </c>
       <c r="E4">
-        <v>0.186310483057138</v>
+        <v>0.255865125003929</v>
       </c>
       <c r="F4">
-        <v>0.3330404777066462</v>
+        <v>0.8806136434229259</v>
       </c>
       <c r="G4">
-        <v>0.254672291263077</v>
+        <v>0.3899473382547853</v>
       </c>
       <c r="H4">
-        <v>0.2107520077888125</v>
+        <v>0.5506297061354672</v>
       </c>
       <c r="I4">
-        <v>0.4022013562682574</v>
+        <v>0.7808395279387206</v>
       </c>
       <c r="J4">
-        <v>0.3446064074364301</v>
+        <v>0.315484411112152</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.44607417540962</v>
+        <v>0.5844217104742881</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.9316859218039042</v>
+        <v>1.824943626498538</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.563065486680784</v>
+        <v>1.328825328967071</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1058668735141524</v>
+        <v>0.2838452123629196</v>
       </c>
       <c r="E5">
-        <v>0.1839367517690746</v>
+        <v>0.2554733966294727</v>
       </c>
       <c r="F5">
-        <v>0.3317229277142744</v>
+        <v>0.8834970669141455</v>
       </c>
       <c r="G5">
-        <v>0.2484209975957299</v>
+        <v>0.3899769805831923</v>
       </c>
       <c r="H5">
-        <v>0.2094781058434876</v>
+        <v>0.5518287550216385</v>
       </c>
       <c r="I5">
-        <v>0.4030407290223117</v>
+        <v>0.7834235576553361</v>
       </c>
       <c r="J5">
-        <v>0.3370251917657043</v>
+        <v>0.3133672823489491</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.387175382200269</v>
+        <v>0.564829254424609</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.9156614189174945</v>
+        <v>1.827434870300181</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.545129144524367</v>
+        <v>1.322895211084244</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1060131197153353</v>
+        <v>0.2839767262131083</v>
       </c>
       <c r="E6">
-        <v>0.1835447787674873</v>
+        <v>0.2554099632383071</v>
       </c>
       <c r="F6">
-        <v>0.3315226281654589</v>
+        <v>0.8839863239938808</v>
       </c>
       <c r="G6">
-        <v>0.2473956062864673</v>
+        <v>0.3899878300872572</v>
       </c>
       <c r="H6">
-        <v>0.2092747528029975</v>
+        <v>0.5520328900899258</v>
       </c>
       <c r="I6">
-        <v>0.4031989100478448</v>
+        <v>0.7838623984748274</v>
       </c>
       <c r="J6">
-        <v>0.3357688024570535</v>
+        <v>0.3130174234542835</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.377392082447045</v>
+        <v>0.5615729863395131</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.9130442979874118</v>
+        <v>1.827871481843488</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.669614580939651</v>
+        <v>1.36403120813435</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1050115967607645</v>
+        <v>0.2830746594122289</v>
       </c>
       <c r="E7">
-        <v>0.1862783233060021</v>
+        <v>0.255859734021481</v>
       </c>
       <c r="F7">
-        <v>0.3330214592744625</v>
+        <v>0.8806518284309632</v>
       </c>
       <c r="G7">
-        <v>0.2545871274259</v>
+        <v>0.3899473404737819</v>
       </c>
       <c r="H7">
-        <v>0.2107342748209362</v>
+        <v>0.5506455394375607</v>
       </c>
       <c r="I7">
-        <v>0.4022114064428202</v>
+        <v>0.7808737224485967</v>
       </c>
       <c r="J7">
-        <v>0.3445039982729128</v>
+        <v>0.3154557458174025</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.445280053112384</v>
+        <v>0.5841576789528915</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.9314668473577825</v>
+        <v>1.824975685815815</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.218838527235789</v>
+        <v>1.544906091053292</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1009304153995636</v>
+        <v>0.2793603780142142</v>
       </c>
       <c r="E8">
-        <v>0.1986629398146036</v>
+        <v>0.2580775811597107</v>
       </c>
       <c r="F8">
-        <v>0.3424399881791089</v>
+        <v>0.8674607043212603</v>
       </c>
       <c r="G8">
-        <v>0.2882677341040818</v>
+        <v>0.3906322418552577</v>
       </c>
       <c r="H8">
-        <v>0.2184130815676895</v>
+        <v>0.5452554531508014</v>
       </c>
       <c r="I8">
-        <v>0.4006904315193722</v>
+        <v>0.7691048592430434</v>
       </c>
       <c r="J8">
-        <v>0.3834195879134654</v>
+        <v>0.3264582778742664</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.744470070452707</v>
+        <v>0.6833781095581344</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.019455884123204</v>
+        <v>1.815536834910603</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.297687521151659</v>
+        <v>1.897112648831353</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.09416471183480368</v>
+        <v>0.2730293410049889</v>
       </c>
       <c r="E9">
-        <v>0.2241594706630821</v>
+        <v>0.2632526518531151</v>
       </c>
       <c r="F9">
-        <v>0.3722007875010362</v>
+        <v>0.8470859134059623</v>
       </c>
       <c r="G9">
-        <v>0.3624383004723057</v>
+        <v>0.3950990297723109</v>
       </c>
       <c r="H9">
-        <v>0.2384308157093642</v>
+        <v>0.5373193501983309</v>
       </c>
       <c r="I9">
-        <v>0.4089672644543825</v>
+        <v>0.75113071861945</v>
       </c>
       <c r="J9">
-        <v>0.4611803916994575</v>
+        <v>0.3488825774652895</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>2.330689528226628</v>
+        <v>0.8762683784929948</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.219522721603511</v>
+        <v>1.809079370938662</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.093808568327347</v>
+        <v>2.154257551413821</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.08996932543576719</v>
+        <v>0.2689544347052149</v>
       </c>
       <c r="E10">
-        <v>0.2436884820771752</v>
+        <v>0.2675485544368712</v>
       </c>
       <c r="F10">
-        <v>0.4021667044324673</v>
+        <v>0.8354822713029293</v>
       </c>
       <c r="G10">
-        <v>0.423025385155583</v>
+        <v>0.4003049261522023</v>
       </c>
       <c r="H10">
-        <v>0.256676085116581</v>
+        <v>0.5330975936867617</v>
       </c>
       <c r="I10">
-        <v>0.4229886721729059</v>
+        <v>0.7410409988060138</v>
       </c>
       <c r="J10">
-        <v>0.5193314009706569</v>
+        <v>0.3658560864531069</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>2.762079178787758</v>
+        <v>1.016892648135524</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.386788847043135</v>
+        <v>1.811731682370493</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.457325299627996</v>
+        <v>2.270867472782072</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0882339422305165</v>
+        <v>0.2672249375981792</v>
       </c>
       <c r="E11">
-        <v>0.2527603517860229</v>
+        <v>0.2696081135827129</v>
       </c>
       <c r="F11">
-        <v>0.4178465850596709</v>
+        <v>0.830937964694499</v>
       </c>
       <c r="G11">
-        <v>0.4521831179495308</v>
+        <v>0.4030953295054758</v>
       </c>
       <c r="H11">
-        <v>0.2658672223255536</v>
+        <v>0.531527085459615</v>
       </c>
       <c r="I11">
-        <v>0.4313479612179947</v>
+        <v>0.7371285787447803</v>
       </c>
       <c r="J11">
-        <v>0.5460418849415305</v>
+        <v>0.3736822037064087</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2.95872641327361</v>
+        <v>1.080615899038321</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.468118752080585</v>
+        <v>1.814555104617881</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.595226118878259</v>
+        <v>2.314969724037837</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.08760211992586875</v>
+        <v>0.2665878119952296</v>
       </c>
       <c r="E12">
-        <v>0.2562239605994634</v>
+        <v>0.2704029865410575</v>
       </c>
       <c r="F12">
-        <v>0.4241045354427655</v>
+        <v>0.8293230311652309</v>
       </c>
       <c r="G12">
-        <v>0.4634783046633402</v>
+        <v>0.4042130169604548</v>
       </c>
       <c r="H12">
-        <v>0.2694868353032973</v>
+        <v>0.5309827561584228</v>
       </c>
       <c r="I12">
-        <v>0.4348212858320295</v>
+        <v>0.735744554064091</v>
       </c>
       <c r="J12">
-        <v>0.5561965018932113</v>
+        <v>0.3766604675999616</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>3.033271580656162</v>
+        <v>1.104709272953357</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.499744431373387</v>
+        <v>1.815857563113354</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.56551498084167</v>
+        <v>2.305474021143652</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.08773706047004026</v>
+        <v>0.266724237833607</v>
       </c>
       <c r="E13">
-        <v>0.2554767312467305</v>
+        <v>0.2702311338679095</v>
       </c>
       <c r="F13">
-        <v>0.42274209752091</v>
+        <v>0.8296661212583629</v>
       </c>
       <c r="G13">
-        <v>0.4610339921622995</v>
+        <v>0.403969584107486</v>
       </c>
       <c r="H13">
-        <v>0.2687009159102871</v>
+        <v>0.5310977452411976</v>
       </c>
       <c r="I13">
-        <v>0.4340591683143984</v>
+        <v>0.7360382893485422</v>
       </c>
       <c r="J13">
-        <v>0.554007697554411</v>
+        <v>0.3760183982191023</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>3.017213075508209</v>
+        <v>1.09952201616619</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.492895216535743</v>
+        <v>1.815566667315863</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.468665274790169</v>
+        <v>2.274496916961596</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.08818145161871627</v>
+        <v>0.2671721645594545</v>
       </c>
       <c r="E14">
-        <v>0.2530447304700161</v>
+        <v>0.2696732094325611</v>
       </c>
       <c r="F14">
-        <v>0.4183548565591835</v>
+        <v>0.8308029790308282</v>
       </c>
       <c r="G14">
-        <v>0.4531071484317124</v>
+        <v>0.4031860575917392</v>
       </c>
       <c r="H14">
-        <v>0.2661621560553442</v>
+        <v>0.5314812929675696</v>
       </c>
       <c r="I14">
-        <v>0.4316274066034111</v>
+        <v>0.7370127590342292</v>
       </c>
       <c r="J14">
-        <v>0.5468764932032997</v>
+        <v>0.3739269351832206</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>2.964857577736609</v>
+        <v>1.082598831147266</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.470703580070932</v>
+        <v>1.814657578713962</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.409375476045511</v>
+        <v>2.255515253186445</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.08845696596742769</v>
+        <v>0.2674488485248929</v>
       </c>
       <c r="E15">
-        <v>0.2515587827603483</v>
+        <v>0.2693334077561715</v>
       </c>
       <c r="F15">
-        <v>0.4157100560242171</v>
+        <v>0.8315131373611351</v>
       </c>
       <c r="G15">
-        <v>0.4482855273417812</v>
+        <v>0.4027140809797629</v>
       </c>
       <c r="H15">
-        <v>0.2646255500677626</v>
+        <v>0.5317227908072653</v>
       </c>
       <c r="I15">
-        <v>0.4301786826511247</v>
+        <v>0.7376223536666373</v>
       </c>
       <c r="J15">
-        <v>0.5425137173712784</v>
+        <v>0.3726477545295808</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>2.932799275897708</v>
+        <v>1.072227993289857</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.457220665813907</v>
+        <v>1.814131140099136</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.07008336681821</v>
+        <v>2.146629212177459</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.09008625715967611</v>
+        <v>0.2690699552729114</v>
       </c>
       <c r="E16">
-        <v>0.2430995020815132</v>
+        <v>0.2674160611709695</v>
       </c>
       <c r="F16">
-        <v>0.4011853668136212</v>
+        <v>0.8357940541781801</v>
       </c>
       <c r="G16">
-        <v>0.4211540135470955</v>
+        <v>0.4001310891891023</v>
       </c>
       <c r="H16">
-        <v>0.2560942767549221</v>
+        <v>0.5332072779257686</v>
       </c>
       <c r="I16">
-        <v>0.42248416271552</v>
+        <v>0.7413103256696303</v>
       </c>
       <c r="J16">
-        <v>0.5175912304167838</v>
+        <v>0.3653467068091487</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>2.749237720362373</v>
+        <v>1.012723062696239</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.381585416881933</v>
+        <v>1.81157976800344</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.862320400423073</v>
+        <v>2.079735342446099</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.0911304178658412</v>
+        <v>0.2700962175434896</v>
       </c>
       <c r="E17">
-        <v>0.2379590213722693</v>
+        <v>0.2662666775312061</v>
       </c>
       <c r="F17">
-        <v>0.3928173341125571</v>
+        <v>0.8386085400067316</v>
       </c>
       <c r="G17">
-        <v>0.4049352757797777</v>
+        <v>0.3986548669768553</v>
       </c>
       <c r="H17">
-        <v>0.2510964492858534</v>
+        <v>0.5342076463820433</v>
       </c>
       <c r="I17">
-        <v>0.4182870376840242</v>
+        <v>0.7437463616697784</v>
       </c>
       <c r="J17">
-        <v>0.5023699968283069</v>
+        <v>0.3608943128599691</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>2.636746813025894</v>
+        <v>0.9761541559152533</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.336578893471227</v>
+        <v>1.810429264858982</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.742945172965392</v>
+        <v>2.04122541102015</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.09174725902946435</v>
+        <v>0.2706981902673604</v>
       </c>
       <c r="E18">
-        <v>0.2350199693234316</v>
+        <v>0.2656155076222362</v>
       </c>
       <c r="F18">
-        <v>0.3881954066517821</v>
+        <v>0.8402964502243861</v>
       </c>
       <c r="G18">
-        <v>0.3957553940410747</v>
+        <v>0.3978455056207935</v>
       </c>
       <c r="H18">
-        <v>0.2483050203083081</v>
+        <v>0.5348159710275127</v>
       </c>
       <c r="I18">
-        <v>0.4160579431649225</v>
+        <v>0.7452112624969942</v>
       </c>
       <c r="J18">
-        <v>0.4936391720376463</v>
+        <v>0.3583432989690181</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>2.572081875067227</v>
+        <v>0.9550974961013594</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.311180761118948</v>
+        <v>1.809919667060939</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.702546711396394</v>
+        <v>2.02818079313181</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.09195889187922646</v>
+        <v>0.270904018211894</v>
       </c>
       <c r="E19">
-        <v>0.2340278460749019</v>
+        <v>0.2653967429752413</v>
       </c>
       <c r="F19">
-        <v>0.3866625736393345</v>
+        <v>0.8408798047377815</v>
       </c>
       <c r="G19">
-        <v>0.3926720741532819</v>
+        <v>0.3975782827334626</v>
       </c>
       <c r="H19">
-        <v>0.2473738568816799</v>
+        <v>0.5350275947981231</v>
       </c>
       <c r="I19">
-        <v>0.4153343058703527</v>
+        <v>0.7457181999437523</v>
       </c>
       <c r="J19">
-        <v>0.4906871062138407</v>
+        <v>0.3574812791089812</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>2.550193165557118</v>
+        <v>0.9479641404785184</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.302663098947818</v>
+        <v>1.80977323235183</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.884423886474565</v>
+        <v>2.086859883377485</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.09101757845876435</v>
+        <v>0.2699857603587716</v>
       </c>
       <c r="E20">
-        <v>0.2385044023586715</v>
+        <v>0.2663880055034866</v>
       </c>
       <c r="F20">
-        <v>0.3936881617234036</v>
+        <v>0.8383017801052262</v>
       </c>
       <c r="G20">
-        <v>0.4066462274623035</v>
+        <v>0.3988078999678635</v>
       </c>
       <c r="H20">
-        <v>0.2516197898668082</v>
+        <v>0.5340977459340905</v>
       </c>
       <c r="I20">
-        <v>0.4187145225088003</v>
+        <v>0.743480442068055</v>
       </c>
       <c r="J20">
-        <v>0.5039878160972364</v>
+        <v>0.3613672574997224</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>2.648717703080877</v>
+        <v>0.9800493908062435</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.341318842526164</v>
+        <v>1.810535986126098</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.497105317074897</v>
+        <v>2.283597167945175</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.08805023215523278</v>
+        <v>0.2670401150979771</v>
       </c>
       <c r="E21">
-        <v>0.2537582897976023</v>
+        <v>0.269836680738166</v>
       </c>
       <c r="F21">
-        <v>0.4196345876817134</v>
+        <v>0.8304661798589024</v>
       </c>
       <c r="G21">
-        <v>0.4554283650329012</v>
+        <v>0.4034145397526743</v>
       </c>
       <c r="H21">
-        <v>0.26690398408455</v>
+        <v>0.5313672677103085</v>
       </c>
       <c r="I21">
-        <v>0.432333127881769</v>
+        <v>0.7367238860008527</v>
       </c>
       <c r="J21">
-        <v>0.548969992150802</v>
+        <v>0.374540853119754</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>2.980233334428078</v>
+        <v>1.087570604562302</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.477198715710699</v>
+        <v>1.814918262431462</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.898981731163644</v>
+        <v>2.411852252924575</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.08625875726956878</v>
+        <v>0.2652186740853182</v>
       </c>
       <c r="E22">
-        <v>0.2638931339174633</v>
+        <v>0.2721777190160992</v>
       </c>
       <c r="F22">
-        <v>0.4384724448862585</v>
+        <v>0.8259625526781633</v>
       </c>
       <c r="G22">
-        <v>0.4888021129753781</v>
+        <v>0.4067810707419142</v>
       </c>
       <c r="H22">
-        <v>0.2777097151896299</v>
+        <v>0.5298764700005734</v>
       </c>
       <c r="I22">
-        <v>0.4430398764038941</v>
+        <v>0.7328765846874248</v>
       </c>
       <c r="J22">
-        <v>0.5786027866333256</v>
+        <v>0.3832359687968818</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>3.197370160674723</v>
+        <v>1.157624124517099</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.570867658769146</v>
+        <v>1.819142484069658</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.684342190819223</v>
+        <v>2.343430631962804</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.08720122294150201</v>
+        <v>0.2661813425170934</v>
       </c>
       <c r="E23">
-        <v>0.2584683875253475</v>
+        <v>0.2709203506930393</v>
       </c>
       <c r="F23">
-        <v>0.4282372716887508</v>
+        <v>0.8283096293688459</v>
       </c>
       <c r="G23">
-        <v>0.4708449419187986</v>
+        <v>0.4049516305807259</v>
       </c>
       <c r="H23">
-        <v>0.2718639363581303</v>
+        <v>0.5306452410574423</v>
       </c>
       <c r="I23">
-        <v>0.4371521895316306</v>
+        <v>0.734877906692752</v>
       </c>
       <c r="J23">
-        <v>0.5627647214926128</v>
+        <v>0.3785875328022144</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>3.081429597476529</v>
+        <v>1.120255714815073</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.520403760837354</v>
+        <v>1.816763225929066</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.874430684645745</v>
+        <v>2.083639039423133</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.09106854167146139</v>
+        <v>0.2700356607907963</v>
       </c>
       <c r="E24">
-        <v>0.2382577850031851</v>
+        <v>0.266333123128085</v>
       </c>
       <c r="F24">
-        <v>0.3932938739021097</v>
+        <v>0.8384402487799392</v>
       </c>
       <c r="G24">
-        <v>0.4058722579742664</v>
+        <v>0.3987385912394359</v>
       </c>
       <c r="H24">
-        <v>0.2513829333450701</v>
+        <v>0.5341473285159282</v>
       </c>
       <c r="I24">
-        <v>0.4185206855676</v>
+        <v>0.7436004637530047</v>
       </c>
       <c r="J24">
-        <v>0.5032563377259152</v>
+        <v>0.3611534120147724</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>2.643305641613779</v>
+        <v>0.9782884568734005</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.339174432247347</v>
+        <v>1.810487264521555</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.005401087177063</v>
+        <v>1.802108774896283</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.09586042624025737</v>
+        <v>0.2746405076860832</v>
       </c>
       <c r="E25">
-        <v>0.2171266524062148</v>
+        <v>0.2617652529089156</v>
       </c>
       <c r="F25">
-        <v>0.3628197902564452</v>
+        <v>0.8520080017259986</v>
       </c>
       <c r="G25">
-        <v>0.3413901030257023</v>
+        <v>0.3935541697566975</v>
       </c>
       <c r="H25">
-        <v>0.2324333953971518</v>
+        <v>0.5391839687002147</v>
       </c>
       <c r="I25">
-        <v>0.4054159163247917</v>
+        <v>0.7554463342407516</v>
       </c>
       <c r="J25">
-        <v>0.4399756552181202</v>
+        <v>0.3427273493366698</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>2.172056866355376</v>
+        <v>0.8242734432087389</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.162105350916249</v>
+        <v>1.809530902347603</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_9/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.593749689512947</v>
+        <v>3.367692437884102</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.278418623906763</v>
+        <v>0.09990762057074321</v>
       </c>
       <c r="E2">
-        <v>0.2587347637699864</v>
+        <v>0.20209846141762</v>
       </c>
       <c r="F2">
-        <v>0.8642576633317063</v>
+        <v>0.3457134621992992</v>
       </c>
       <c r="G2">
-        <v>0.391028466203025</v>
+        <v>0.297903343692667</v>
       </c>
       <c r="H2">
-        <v>0.543973131779353</v>
+        <v>0.2208113308652599</v>
       </c>
       <c r="I2">
-        <v>0.76626140285817</v>
+        <v>0.4010028004457382</v>
       </c>
       <c r="J2">
-        <v>0.3294975375461036</v>
+        <v>0.3940570735912559</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.7101507023506031</v>
+        <v>1.825468488846781</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.813793148630253</v>
+        <v>1.045036783719922</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.451906098937059</v>
+        <v>2.936058881495853</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2812223158753611</v>
+        <v>0.1029672913258004</v>
       </c>
       <c r="E3">
-        <v>0.2568917025592548</v>
+        <v>0.1922249737066259</v>
       </c>
       <c r="F3">
-        <v>0.8739634813138508</v>
+        <v>0.3370445597733394</v>
       </c>
       <c r="G3">
-        <v>0.3901157682615946</v>
+        <v>0.2705444381976463</v>
       </c>
       <c r="H3">
-        <v>0.5478918876989312</v>
+        <v>0.2142187459866065</v>
       </c>
       <c r="I3">
-        <v>0.7748952370540465</v>
+        <v>0.4009231025220998</v>
       </c>
       <c r="J3">
-        <v>0.3207478604866765</v>
+        <v>0.3633122161030968</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.6323783755559589</v>
+        <v>1.59049170549801</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.819763241671936</v>
+        <v>0.9728432112341068</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.36451220110132</v>
+        <v>2.671071059085023</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2830642500969525</v>
+        <v>0.1050000618773552</v>
       </c>
       <c r="E4">
-        <v>0.255865125003929</v>
+        <v>0.1863104830570812</v>
       </c>
       <c r="F4">
-        <v>0.8806136434229259</v>
+        <v>0.3330404777066462</v>
       </c>
       <c r="G4">
-        <v>0.3899473382547853</v>
+        <v>0.2546722912631978</v>
       </c>
       <c r="H4">
-        <v>0.5506297061354672</v>
+        <v>0.2107520077886988</v>
       </c>
       <c r="I4">
-        <v>0.7808395279387206</v>
+        <v>0.4022013562682503</v>
       </c>
       <c r="J4">
-        <v>0.315484411112152</v>
+        <v>0.3446064074364159</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5844217104742881</v>
+        <v>1.446074175409848</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.824943626498538</v>
+        <v>0.93168592180389</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.328825328967071</v>
+        <v>2.563065486680671</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2838452123629196</v>
+        <v>0.1058668735140351</v>
       </c>
       <c r="E5">
-        <v>0.2554733966294727</v>
+        <v>0.1839367517690924</v>
       </c>
       <c r="F5">
-        <v>0.8834970669141455</v>
+        <v>0.3317229277143028</v>
       </c>
       <c r="G5">
-        <v>0.3899769805831923</v>
+        <v>0.2484209975956944</v>
       </c>
       <c r="H5">
-        <v>0.5518287550216385</v>
+        <v>0.2094781058434876</v>
       </c>
       <c r="I5">
-        <v>0.7834235576553361</v>
+        <v>0.4030407290223117</v>
       </c>
       <c r="J5">
-        <v>0.3133672823489491</v>
+        <v>0.3370251917657043</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.564829254424609</v>
+        <v>1.387175382200269</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.827434870300181</v>
+        <v>0.9156614189175087</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.322895211084244</v>
+        <v>2.54512914452431</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2839767262131083</v>
+        <v>0.1060131197153318</v>
       </c>
       <c r="E6">
-        <v>0.2554099632383071</v>
+        <v>0.1835447787675228</v>
       </c>
       <c r="F6">
-        <v>0.8839863239938808</v>
+        <v>0.3315226281654589</v>
       </c>
       <c r="G6">
-        <v>0.3899878300872572</v>
+        <v>0.2473956062863394</v>
       </c>
       <c r="H6">
-        <v>0.5520328900899258</v>
+        <v>0.2092747528031111</v>
       </c>
       <c r="I6">
-        <v>0.7838623984748274</v>
+        <v>0.4031989100478448</v>
       </c>
       <c r="J6">
-        <v>0.3130174234542835</v>
+        <v>0.3357688024570393</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5615729863395131</v>
+        <v>1.377392082447017</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.827871481843488</v>
+        <v>0.9130442979874829</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.36403120813435</v>
+        <v>2.669614580939594</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2830746594122289</v>
+        <v>0.105011596760729</v>
       </c>
       <c r="E7">
-        <v>0.255859734021481</v>
+        <v>0.1862783233059524</v>
       </c>
       <c r="F7">
-        <v>0.8806518284309632</v>
+        <v>0.3330214592744554</v>
       </c>
       <c r="G7">
-        <v>0.3899473404737819</v>
+        <v>0.2545871274258928</v>
       </c>
       <c r="H7">
-        <v>0.5506455394375607</v>
+        <v>0.2107342748210499</v>
       </c>
       <c r="I7">
-        <v>0.7808737224485967</v>
+        <v>0.4022114064428131</v>
       </c>
       <c r="J7">
-        <v>0.3154557458174025</v>
+        <v>0.3445039982729412</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5841576789528915</v>
+        <v>1.4452800531121</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.824975685815815</v>
+        <v>0.9314668473577825</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.544906091053292</v>
+        <v>3.218838527235903</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2793603780142142</v>
+        <v>0.1009304153996347</v>
       </c>
       <c r="E8">
-        <v>0.2580775811597107</v>
+        <v>0.1986629398145894</v>
       </c>
       <c r="F8">
-        <v>0.8674607043212603</v>
+        <v>0.3424399881791302</v>
       </c>
       <c r="G8">
-        <v>0.3906322418552577</v>
+        <v>0.288267734104025</v>
       </c>
       <c r="H8">
-        <v>0.5452554531508014</v>
+        <v>0.2184130815676895</v>
       </c>
       <c r="I8">
-        <v>0.7691048592430434</v>
+        <v>0.4006904315193367</v>
       </c>
       <c r="J8">
-        <v>0.3264582778742664</v>
+        <v>0.3834195879133944</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.6833781095581344</v>
+        <v>1.74447007045282</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.815536834910603</v>
+        <v>1.019455884123175</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.897112648831353</v>
+        <v>4.297687521151545</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2730293410049889</v>
+        <v>0.09416471183496355</v>
       </c>
       <c r="E9">
-        <v>0.2632526518531151</v>
+        <v>0.2241594706631034</v>
       </c>
       <c r="F9">
-        <v>0.8470859134059623</v>
+        <v>0.3722007875010291</v>
       </c>
       <c r="G9">
-        <v>0.3950990297723109</v>
+        <v>0.3624383004722489</v>
       </c>
       <c r="H9">
-        <v>0.5373193501983309</v>
+        <v>0.2384308157092647</v>
       </c>
       <c r="I9">
-        <v>0.75113071861945</v>
+        <v>0.4089672644543825</v>
       </c>
       <c r="J9">
-        <v>0.3488825774652895</v>
+        <v>0.4611803916995427</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.8762683784929948</v>
+        <v>2.330689528226685</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.809079370938662</v>
+        <v>1.219522721603511</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.154257551413821</v>
+        <v>5.093808568327347</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2689544347052149</v>
+        <v>0.08996932543542258</v>
       </c>
       <c r="E10">
-        <v>0.2675485544368712</v>
+        <v>0.2436884820771752</v>
       </c>
       <c r="F10">
-        <v>0.8354822713029293</v>
+        <v>0.4021667044324602</v>
       </c>
       <c r="G10">
-        <v>0.4003049261522023</v>
+        <v>0.4230253851555972</v>
       </c>
       <c r="H10">
-        <v>0.5330975936867617</v>
+        <v>0.256676085116581</v>
       </c>
       <c r="I10">
-        <v>0.7410409988060138</v>
+        <v>0.4229886721728988</v>
       </c>
       <c r="J10">
-        <v>0.3658560864531069</v>
+        <v>0.5193314009706285</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.016892648135524</v>
+        <v>2.762079178787815</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.811731682370493</v>
+        <v>1.386788847043192</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.270867472782072</v>
+        <v>5.457325299627882</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2672249375981792</v>
+        <v>0.08823394223047387</v>
       </c>
       <c r="E11">
-        <v>0.2696081135827129</v>
+        <v>0.2527603517860371</v>
       </c>
       <c r="F11">
-        <v>0.830937964694499</v>
+        <v>0.4178465850596922</v>
       </c>
       <c r="G11">
-        <v>0.4030953295054758</v>
+        <v>0.452183117949545</v>
       </c>
       <c r="H11">
-        <v>0.531527085459615</v>
+        <v>0.2658672223256673</v>
       </c>
       <c r="I11">
-        <v>0.7371285787447803</v>
+        <v>0.4313479612180089</v>
       </c>
       <c r="J11">
-        <v>0.3736822037064087</v>
+        <v>0.5460418849413884</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.080615899038321</v>
+        <v>2.958726413273723</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.814555104617881</v>
+        <v>1.468118752080585</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.314969724037837</v>
+        <v>5.595226118878031</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2665878119952296</v>
+        <v>0.08760211992576217</v>
       </c>
       <c r="E12">
-        <v>0.2704029865410575</v>
+        <v>0.2562239605994634</v>
       </c>
       <c r="F12">
-        <v>0.8293230311652309</v>
+        <v>0.4241045354427371</v>
       </c>
       <c r="G12">
-        <v>0.4042130169604548</v>
+        <v>0.4634783046633402</v>
       </c>
       <c r="H12">
-        <v>0.5309827561584228</v>
+        <v>0.2694868353031836</v>
       </c>
       <c r="I12">
-        <v>0.735744554064091</v>
+        <v>0.4348212858320579</v>
       </c>
       <c r="J12">
-        <v>0.3766604675999616</v>
+        <v>0.5561965018931403</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.104709272953357</v>
+        <v>3.033271580656162</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.815857563113354</v>
+        <v>1.499744431373358</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.305474021143652</v>
+        <v>5.565514980841556</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.266724237833607</v>
+        <v>0.08773706047013263</v>
       </c>
       <c r="E13">
-        <v>0.2702311338679095</v>
+        <v>0.2554767312467803</v>
       </c>
       <c r="F13">
-        <v>0.8296661212583629</v>
+        <v>0.42274209752091</v>
       </c>
       <c r="G13">
-        <v>0.403969584107486</v>
+        <v>0.4610339921622995</v>
       </c>
       <c r="H13">
-        <v>0.5310977452411976</v>
+        <v>0.2687009159101734</v>
       </c>
       <c r="I13">
-        <v>0.7360382893485422</v>
+        <v>0.4340591683143913</v>
       </c>
       <c r="J13">
-        <v>0.3760183982191023</v>
+        <v>0.5540076975543258</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.09952201616619</v>
+        <v>3.017213075508153</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.815566667315863</v>
+        <v>1.492895216535715</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.274496916961596</v>
+        <v>5.468665274789885</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2671721645594545</v>
+        <v>0.08818145161854574</v>
       </c>
       <c r="E14">
-        <v>0.2696732094325611</v>
+        <v>0.2530447304700303</v>
       </c>
       <c r="F14">
-        <v>0.8308029790308282</v>
+        <v>0.4183548565591835</v>
       </c>
       <c r="G14">
-        <v>0.4031860575917392</v>
+        <v>0.453107148431755</v>
       </c>
       <c r="H14">
-        <v>0.5314812929675696</v>
+        <v>0.2661621560553442</v>
       </c>
       <c r="I14">
-        <v>0.7370127590342292</v>
+        <v>0.431627406603404</v>
       </c>
       <c r="J14">
-        <v>0.3739269351832206</v>
+        <v>0.5468764932033991</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.082598831147266</v>
+        <v>2.964857577736552</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.814657578713962</v>
+        <v>1.470703580070904</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.255515253186445</v>
+        <v>5.409375476045398</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2674488485248929</v>
+        <v>0.0884569659674419</v>
       </c>
       <c r="E15">
-        <v>0.2693334077561715</v>
+        <v>0.2515587827602985</v>
       </c>
       <c r="F15">
-        <v>0.8315131373611351</v>
+        <v>0.4157100560242171</v>
       </c>
       <c r="G15">
-        <v>0.4027140809797629</v>
+        <v>0.4482855273417954</v>
       </c>
       <c r="H15">
-        <v>0.5317227908072653</v>
+        <v>0.2646255500678762</v>
       </c>
       <c r="I15">
-        <v>0.7376223536666373</v>
+        <v>0.4301786826511105</v>
       </c>
       <c r="J15">
-        <v>0.3726477545295808</v>
+        <v>0.5425137173713352</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.072227993289857</v>
+        <v>2.932799275897594</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.814131140099136</v>
+        <v>1.457220665813878</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.146629212177459</v>
+        <v>5.070083366818096</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2690699552729114</v>
+        <v>0.09008625715967256</v>
       </c>
       <c r="E16">
-        <v>0.2674160611709695</v>
+        <v>0.2430995020815132</v>
       </c>
       <c r="F16">
-        <v>0.8357940541781801</v>
+        <v>0.4011853668136496</v>
       </c>
       <c r="G16">
-        <v>0.4001310891891023</v>
+        <v>0.4211540135470813</v>
       </c>
       <c r="H16">
-        <v>0.5332072779257686</v>
+        <v>0.2560942767549079</v>
       </c>
       <c r="I16">
-        <v>0.7413103256696303</v>
+        <v>0.42248416271552</v>
       </c>
       <c r="J16">
-        <v>0.3653467068091487</v>
+        <v>0.5175912304168264</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.012723062696239</v>
+        <v>2.749237720362572</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.81157976800344</v>
+        <v>1.381585416881961</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.079735342446099</v>
+        <v>4.862320400423187</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2700962175434896</v>
+        <v>0.09113041786580212</v>
       </c>
       <c r="E17">
-        <v>0.2662666775312061</v>
+        <v>0.237959021372248</v>
       </c>
       <c r="F17">
-        <v>0.8386085400067316</v>
+        <v>0.39281733411255</v>
       </c>
       <c r="G17">
-        <v>0.3986548669768553</v>
+        <v>0.4049352757797635</v>
       </c>
       <c r="H17">
-        <v>0.5342076463820433</v>
+        <v>0.2510964492858534</v>
       </c>
       <c r="I17">
-        <v>0.7437463616697784</v>
+        <v>0.4182870376840313</v>
       </c>
       <c r="J17">
-        <v>0.3608943128599691</v>
+        <v>0.5023699968283211</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.9761541559152533</v>
+        <v>2.636746813026065</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.810429264858982</v>
+        <v>1.336578893471227</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.04122541102015</v>
+        <v>4.742945172965392</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2706981902673604</v>
+        <v>0.09174725902934355</v>
       </c>
       <c r="E18">
-        <v>0.2656155076222362</v>
+        <v>0.2350199693234245</v>
       </c>
       <c r="F18">
-        <v>0.8402964502243861</v>
+        <v>0.3881954066517821</v>
       </c>
       <c r="G18">
-        <v>0.3978455056207935</v>
+        <v>0.3957553940409895</v>
       </c>
       <c r="H18">
-        <v>0.5348159710275127</v>
+        <v>0.2483050203083081</v>
       </c>
       <c r="I18">
-        <v>0.7452112624969942</v>
+        <v>0.4160579431649509</v>
       </c>
       <c r="J18">
-        <v>0.3583432989690181</v>
+        <v>0.4936391720376463</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.9550974961013594</v>
+        <v>2.572081875067141</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.809919667060939</v>
+        <v>1.311180761118891</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.02818079313181</v>
+        <v>4.702546711396622</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.270904018211894</v>
+        <v>0.09195889187922646</v>
       </c>
       <c r="E19">
-        <v>0.2653967429752413</v>
+        <v>0.234027846074909</v>
       </c>
       <c r="F19">
-        <v>0.8408798047377815</v>
+        <v>0.3866625736393345</v>
       </c>
       <c r="G19">
-        <v>0.3975782827334626</v>
+        <v>0.3926720741532819</v>
       </c>
       <c r="H19">
-        <v>0.5350275947981231</v>
+        <v>0.2473738568816799</v>
       </c>
       <c r="I19">
-        <v>0.7457181999437523</v>
+        <v>0.4153343058703456</v>
       </c>
       <c r="J19">
-        <v>0.3574812791089812</v>
+        <v>0.4906871062137981</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.9479641404785184</v>
+        <v>2.550193165557204</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.80977323235183</v>
+        <v>1.302663098947818</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.086859883377485</v>
+        <v>4.884423886474622</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2699857603587716</v>
+        <v>0.09101757845892422</v>
       </c>
       <c r="E20">
-        <v>0.2663880055034866</v>
+        <v>0.2385044023586715</v>
       </c>
       <c r="F20">
-        <v>0.8383017801052262</v>
+        <v>0.3936881617234036</v>
       </c>
       <c r="G20">
-        <v>0.3988078999678635</v>
+        <v>0.4066462274622467</v>
       </c>
       <c r="H20">
-        <v>0.5340977459340905</v>
+        <v>0.2516197898668082</v>
       </c>
       <c r="I20">
-        <v>0.743480442068055</v>
+        <v>0.4187145225088003</v>
       </c>
       <c r="J20">
-        <v>0.3613672574997224</v>
+        <v>0.5039878160972648</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.9800493908062435</v>
+        <v>2.648717703080905</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.810535986126098</v>
+        <v>1.341318842526221</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.283597167945175</v>
+        <v>5.497105317075011</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2670401150979771</v>
+        <v>0.08805023215534646</v>
       </c>
       <c r="E21">
-        <v>0.269836680738166</v>
+        <v>0.2537582897976094</v>
       </c>
       <c r="F21">
-        <v>0.8304661798589024</v>
+        <v>0.4196345876816991</v>
       </c>
       <c r="G21">
-        <v>0.4034145397526743</v>
+        <v>0.4554283650329154</v>
       </c>
       <c r="H21">
-        <v>0.5313672677103085</v>
+        <v>0.2669039840846636</v>
       </c>
       <c r="I21">
-        <v>0.7367238860008527</v>
+        <v>0.4323331278817975</v>
       </c>
       <c r="J21">
-        <v>0.374540853119754</v>
+        <v>0.5489699921507025</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.087570604562302</v>
+        <v>2.980233334428078</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.814918262431462</v>
+        <v>1.477198715710671</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.411852252924575</v>
+        <v>5.898981731163303</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2652186740853182</v>
+        <v>0.08625875726937693</v>
       </c>
       <c r="E22">
-        <v>0.2721777190160992</v>
+        <v>0.2638931339174277</v>
       </c>
       <c r="F22">
-        <v>0.8259625526781633</v>
+        <v>0.4384724448862443</v>
       </c>
       <c r="G22">
-        <v>0.4067810707419142</v>
+        <v>0.4888021129753781</v>
       </c>
       <c r="H22">
-        <v>0.5298764700005734</v>
+        <v>0.2777097151897436</v>
       </c>
       <c r="I22">
-        <v>0.7328765846874248</v>
+        <v>0.4430398764039225</v>
       </c>
       <c r="J22">
-        <v>0.3832359687968818</v>
+        <v>0.5786027866333256</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.157624124517099</v>
+        <v>3.197370160674893</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.819142484069658</v>
+        <v>1.570867658769174</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.343430631962804</v>
+        <v>5.684342190819507</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2661813425170934</v>
+        <v>0.0872012229412249</v>
       </c>
       <c r="E23">
-        <v>0.2709203506930393</v>
+        <v>0.2584683875253475</v>
       </c>
       <c r="F23">
-        <v>0.8283096293688459</v>
+        <v>0.428237271688765</v>
       </c>
       <c r="G23">
-        <v>0.4049516305807259</v>
+        <v>0.470844941918898</v>
       </c>
       <c r="H23">
-        <v>0.5306452410574423</v>
+        <v>0.2718639363581303</v>
       </c>
       <c r="I23">
-        <v>0.734877906692752</v>
+        <v>0.4371521895316306</v>
       </c>
       <c r="J23">
-        <v>0.3785875328022144</v>
+        <v>0.5627647214927549</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.120255714815073</v>
+        <v>3.081429597476415</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.816763225929066</v>
+        <v>1.520403760837326</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.083639039423133</v>
+        <v>4.874430684645802</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2700356607907963</v>
+        <v>0.09106854167135126</v>
       </c>
       <c r="E24">
-        <v>0.266333123128085</v>
+        <v>0.2382577850032135</v>
       </c>
       <c r="F24">
-        <v>0.8384402487799392</v>
+        <v>0.3932938739021239</v>
       </c>
       <c r="G24">
-        <v>0.3987385912394359</v>
+        <v>0.4058722579742522</v>
       </c>
       <c r="H24">
-        <v>0.5341473285159282</v>
+        <v>0.2513829333450843</v>
       </c>
       <c r="I24">
-        <v>0.7436004637530047</v>
+        <v>0.4185206855676</v>
       </c>
       <c r="J24">
-        <v>0.3611534120147724</v>
+        <v>0.5032563377259009</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.9782884568734005</v>
+        <v>2.643305641613779</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.810487264521555</v>
+        <v>1.339174432247347</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.802108774896283</v>
+        <v>4.005401087176836</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2746405076860832</v>
+        <v>0.09586042624023605</v>
       </c>
       <c r="E25">
-        <v>0.2617652529089156</v>
+        <v>0.2171266524062432</v>
       </c>
       <c r="F25">
-        <v>0.8520080017259986</v>
+        <v>0.3628197902564168</v>
       </c>
       <c r="G25">
-        <v>0.3935541697566975</v>
+        <v>0.3413901030257733</v>
       </c>
       <c r="H25">
-        <v>0.5391839687002147</v>
+        <v>0.2324333953972655</v>
       </c>
       <c r="I25">
-        <v>0.7554463342407516</v>
+        <v>0.4054159163247775</v>
       </c>
       <c r="J25">
-        <v>0.3427273493366698</v>
+        <v>0.4399756552180776</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.8242734432087389</v>
+        <v>2.172056866355319</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.809530902347603</v>
+        <v>1.162105350916278</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_9/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.367692437884102</v>
+        <v>1.673558101959571</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.09990762057074321</v>
+        <v>0.1196759664247451</v>
       </c>
       <c r="E2">
-        <v>0.20209846141762</v>
+        <v>0.1489565620420592</v>
       </c>
       <c r="F2">
-        <v>0.3457134621992992</v>
+        <v>0.59328904497103</v>
       </c>
       <c r="G2">
-        <v>0.297903343692667</v>
+        <v>0.4599000609965884</v>
       </c>
       <c r="H2">
-        <v>0.2208113308652599</v>
+        <v>0.0001582261176091837</v>
       </c>
       <c r="I2">
-        <v>0.4010028004457382</v>
+        <v>0.009899404397430978</v>
       </c>
       <c r="J2">
-        <v>0.3940570735912559</v>
+        <v>0.3126345206615753</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2988413429647241</v>
       </c>
       <c r="L2">
-        <v>1.825468488846781</v>
+        <v>0.233747366226666</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.8798348544107739</v>
       </c>
       <c r="O2">
-        <v>1.045036783719922</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1.426494756245958</v>
+      </c>
+      <c r="Q2">
+        <v>1.580265972605588</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.936058881495853</v>
+        <v>1.465744159484331</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1029672913258004</v>
+        <v>0.1195803515332221</v>
       </c>
       <c r="E3">
-        <v>0.1922249737066259</v>
+        <v>0.1448692003481487</v>
       </c>
       <c r="F3">
-        <v>0.3370445597733394</v>
+        <v>0.5542774521775797</v>
       </c>
       <c r="G3">
-        <v>0.2705444381976463</v>
+        <v>0.4132966729165304</v>
       </c>
       <c r="H3">
-        <v>0.2142187459866065</v>
+        <v>0.0006118882198619113</v>
       </c>
       <c r="I3">
-        <v>0.4009231025220998</v>
+        <v>0.0116334078011433</v>
       </c>
       <c r="J3">
-        <v>0.3633122161030968</v>
+        <v>0.2946755521457902</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3116841245721722</v>
       </c>
       <c r="L3">
-        <v>1.59049170549801</v>
+        <v>0.2219928047943256</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.7675906092898686</v>
       </c>
       <c r="O3">
-        <v>0.9728432112341068</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1.367798232047051</v>
+      </c>
+      <c r="Q3">
+        <v>1.443571029736518</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.671071059085023</v>
+        <v>1.337282169059023</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1050000618773552</v>
+        <v>0.1195411384775769</v>
       </c>
       <c r="E4">
-        <v>0.1863104830570812</v>
+        <v>0.1423527222153638</v>
       </c>
       <c r="F4">
-        <v>0.3330404777066462</v>
+        <v>0.5308522970002443</v>
       </c>
       <c r="G4">
-        <v>0.2546722912631978</v>
+        <v>0.3850974489633785</v>
       </c>
       <c r="H4">
-        <v>0.2107520077886988</v>
+        <v>0.001054479088739124</v>
       </c>
       <c r="I4">
-        <v>0.4022013562682503</v>
+        <v>0.0128409392883766</v>
       </c>
       <c r="J4">
-        <v>0.3446064074364159</v>
+        <v>0.2839440693879141</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3198975031815785</v>
       </c>
       <c r="L4">
-        <v>1.446074175409848</v>
+        <v>0.2147645521593944</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.6989413024256237</v>
       </c>
       <c r="O4">
-        <v>0.93168592180389</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1.332725114660406</v>
+      </c>
+      <c r="Q4">
+        <v>1.361129450833118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.563065486680671</v>
+        <v>1.283396734947303</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1058668735140351</v>
+        <v>0.1195053294056301</v>
       </c>
       <c r="E5">
-        <v>0.1839367517690924</v>
+        <v>0.1413711231343218</v>
       </c>
       <c r="F5">
-        <v>0.3317229277143028</v>
+        <v>0.521104063656793</v>
       </c>
       <c r="G5">
-        <v>0.2484209975956944</v>
+        <v>0.3734794076328427</v>
       </c>
       <c r="H5">
-        <v>0.2094781058434876</v>
+        <v>0.001274994451927136</v>
       </c>
       <c r="I5">
-        <v>0.4030407290223117</v>
+        <v>0.01345479107390091</v>
       </c>
       <c r="J5">
-        <v>0.3370251917657043</v>
+        <v>0.2795267697960782</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.323226015510037</v>
       </c>
       <c r="L5">
-        <v>1.387175382200269</v>
+        <v>0.2119654722785356</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.6720313993223357</v>
       </c>
       <c r="O5">
-        <v>0.9156614189175087</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1.319739087165203</v>
+      </c>
+      <c r="Q5">
+        <v>1.32717058522465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.54512914452431</v>
+        <v>1.272817924451545</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1060131197153318</v>
+        <v>0.1194699265379473</v>
       </c>
       <c r="E6">
-        <v>0.1835447787675228</v>
+        <v>0.1412650704135636</v>
       </c>
       <c r="F6">
-        <v>0.3315226281654589</v>
+        <v>0.5190916891757382</v>
       </c>
       <c r="G6">
-        <v>0.2473956062863394</v>
+        <v>0.3712830852787334</v>
       </c>
       <c r="H6">
-        <v>0.2092747528031111</v>
+        <v>0.001315043829191898</v>
       </c>
       <c r="I6">
-        <v>0.4031989100478448</v>
+        <v>0.0136723824143985</v>
       </c>
       <c r="J6">
-        <v>0.3357688024570393</v>
+        <v>0.278656989657776</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3236639087558618</v>
       </c>
       <c r="L6">
-        <v>1.377392082447017</v>
+        <v>0.2116856195196348</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.6687963447665766</v>
       </c>
       <c r="O6">
-        <v>0.9130442979874829</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>1.318910527624126</v>
+      </c>
+      <c r="Q6">
+        <v>1.320679893660952</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.669614580939594</v>
+        <v>1.33212302226633</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.105011596760729</v>
+        <v>0.119460400663876</v>
       </c>
       <c r="E7">
-        <v>0.1862783233059524</v>
+        <v>0.1424972577115717</v>
       </c>
       <c r="F7">
-        <v>0.3330214592744554</v>
+        <v>0.529625214039811</v>
       </c>
       <c r="G7">
-        <v>0.2545871274258928</v>
+        <v>0.3841950036701007</v>
       </c>
       <c r="H7">
-        <v>0.2107342748210499</v>
+        <v>0.001059921126019381</v>
       </c>
       <c r="I7">
-        <v>0.4022114064428131</v>
+        <v>0.01314305549123063</v>
       </c>
       <c r="J7">
-        <v>0.3445039982729412</v>
+        <v>0.283500821426685</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.3196203839346387</v>
       </c>
       <c r="L7">
-        <v>1.4452800531121</v>
+        <v>0.2152356914197497</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.7019419234095778</v>
       </c>
       <c r="O7">
-        <v>0.9314668473577825</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>1.336162737363892</v>
+      </c>
+      <c r="Q7">
+        <v>1.35828724596476</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.218838527235903</v>
+        <v>1.596168362280906</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1009304153996347</v>
+        <v>0.1195369050637649</v>
       </c>
       <c r="E8">
-        <v>0.1986629398145894</v>
+        <v>0.1477656505794585</v>
       </c>
       <c r="F8">
-        <v>0.3424399881791302</v>
+        <v>0.5782764150686148</v>
       </c>
       <c r="G8">
-        <v>0.288267734104025</v>
+        <v>0.44275195801184</v>
       </c>
       <c r="H8">
-        <v>0.2184130815676895</v>
+        <v>0.0002810031243307698</v>
       </c>
       <c r="I8">
-        <v>0.4006904315193367</v>
+        <v>0.01082239399099993</v>
       </c>
       <c r="J8">
-        <v>0.3834195879133944</v>
+        <v>0.3058724091103926</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3028023708352929</v>
       </c>
       <c r="L8">
-        <v>1.74447007045282</v>
+        <v>0.2303839612484779</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.8455518395122397</v>
       </c>
       <c r="O8">
-        <v>1.019455884123175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1.410950700725166</v>
+      </c>
+      <c r="Q8">
+        <v>1.529654594949307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.297687521151545</v>
+        <v>2.11500537304164</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.09416471183496355</v>
+        <v>0.1199929301097997</v>
       </c>
       <c r="E9">
-        <v>0.2241594706631034</v>
+        <v>0.1577797421463636</v>
       </c>
       <c r="F9">
-        <v>0.3722007875010291</v>
+        <v>0.6801766380719627</v>
       </c>
       <c r="G9">
-        <v>0.3624383004722489</v>
+        <v>0.5626089889463799</v>
       </c>
       <c r="H9">
-        <v>0.2384308157092647</v>
+        <v>0.0001478063064900281</v>
       </c>
       <c r="I9">
-        <v>0.4089672644543825</v>
+        <v>0.007006508999864103</v>
       </c>
       <c r="J9">
-        <v>0.4611803916995427</v>
+        <v>0.3529453519011696</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.2730317970766893</v>
       </c>
       <c r="L9">
-        <v>2.330689528226685</v>
+        <v>0.2591367181805637</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.123526861667756</v>
       </c>
       <c r="O9">
-        <v>1.219522721603511</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1.558942403341717</v>
+      </c>
+      <c r="Q9">
+        <v>1.882992014039985</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.093808568327347</v>
+        <v>2.475940261070036</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.08996932543542258</v>
+        <v>0.1200662807635364</v>
       </c>
       <c r="E10">
-        <v>0.2436884820771752</v>
+        <v>0.1670721679429974</v>
       </c>
       <c r="F10">
-        <v>0.4021667044324602</v>
+        <v>0.7492660319538089</v>
       </c>
       <c r="G10">
-        <v>0.4230253851555972</v>
+        <v>0.647160743821388</v>
       </c>
       <c r="H10">
-        <v>0.256676085116581</v>
+        <v>0.00115529619077348</v>
       </c>
       <c r="I10">
-        <v>0.4229886721728988</v>
+        <v>0.005195800244808702</v>
       </c>
       <c r="J10">
-        <v>0.5193314009706285</v>
+        <v>0.3861671409127183</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.2522560228556734</v>
       </c>
       <c r="L10">
-        <v>2.762079178787815</v>
+        <v>0.2856014422712363</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1.314096251833689</v>
       </c>
       <c r="O10">
-        <v>1.386788847043192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>1.68698525924917</v>
+      </c>
+      <c r="Q10">
+        <v>2.132255035801194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.457325299627882</v>
+        <v>2.512482358669843</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.08823394223047387</v>
+        <v>0.1182638815723838</v>
       </c>
       <c r="E11">
-        <v>0.2527603517860371</v>
+        <v>0.1913729975615865</v>
       </c>
       <c r="F11">
-        <v>0.4178465850596922</v>
+        <v>0.7064474743537659</v>
       </c>
       <c r="G11">
-        <v>0.452183117949545</v>
+        <v>0.6333848671509514</v>
       </c>
       <c r="H11">
-        <v>0.2658672223256673</v>
+        <v>0.01977143375803436</v>
       </c>
       <c r="I11">
-        <v>0.4313479612180089</v>
+        <v>0.005372682886243929</v>
       </c>
       <c r="J11">
-        <v>0.5460418849413884</v>
+        <v>0.3752976789628235</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2407726113084556</v>
       </c>
       <c r="L11">
-        <v>2.958726413273723</v>
+        <v>0.3497815199447558</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1.257996109000771</v>
       </c>
       <c r="O11">
-        <v>1.468118752080585</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1.863871811052434</v>
+      </c>
+      <c r="Q11">
+        <v>2.080489082016015</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.595226118878031</v>
+        <v>2.472809958335517</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.08760211992576217</v>
+        <v>0.1184580571847853</v>
       </c>
       <c r="E12">
-        <v>0.2562239605994634</v>
+        <v>0.2148200103268216</v>
       </c>
       <c r="F12">
-        <v>0.4241045354427371</v>
+        <v>0.6577453641360407</v>
       </c>
       <c r="G12">
-        <v>0.4634783046633402</v>
+        <v>0.6047560470662035</v>
       </c>
       <c r="H12">
-        <v>0.2694868353031836</v>
+        <v>0.05836443807297798</v>
       </c>
       <c r="I12">
-        <v>0.4348212858320579</v>
+        <v>0.005363516206241314</v>
       </c>
       <c r="J12">
-        <v>0.5561965018931403</v>
+        <v>0.3594039903134245</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.238514113754297</v>
       </c>
       <c r="L12">
-        <v>3.033271580656162</v>
+        <v>0.4077609909445243</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1.166602414570434</v>
       </c>
       <c r="O12">
-        <v>1.499744431373358</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1.987471267178137</v>
+      </c>
+      <c r="Q12">
+        <v>1.986595936283123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.565514980841556</v>
+        <v>2.365537753954357</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.08773706047013263</v>
+        <v>0.1199957896509964</v>
       </c>
       <c r="E13">
-        <v>0.2554767312467803</v>
+        <v>0.2388802370687024</v>
       </c>
       <c r="F13">
-        <v>0.42274209752091</v>
+        <v>0.5999795307785334</v>
       </c>
       <c r="G13">
-        <v>0.4610339921622995</v>
+        <v>0.5617936581843139</v>
       </c>
       <c r="H13">
-        <v>0.2687009159101734</v>
+        <v>0.1139085863305525</v>
       </c>
       <c r="I13">
-        <v>0.4340591683143913</v>
+        <v>0.005628581814230316</v>
       </c>
       <c r="J13">
-        <v>0.5540076975543258</v>
+        <v>0.33806402240414</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2424922577416497</v>
       </c>
       <c r="L13">
-        <v>3.017213075508153</v>
+        <v>0.4643993001655673</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1.048744820089325</v>
       </c>
       <c r="O13">
-        <v>1.492895216535715</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>2.081323329997957</v>
+      </c>
+      <c r="Q13">
+        <v>1.850825209180357</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.468665274789885</v>
+        <v>2.259003716491407</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.08818145161854574</v>
+        <v>0.1218648332894361</v>
       </c>
       <c r="E14">
-        <v>0.2530447304700303</v>
+        <v>0.2565775036572866</v>
       </c>
       <c r="F14">
-        <v>0.4183548565591835</v>
+        <v>0.5556058264475894</v>
       </c>
       <c r="G14">
-        <v>0.453107148431755</v>
+        <v>0.5253017507694864</v>
       </c>
       <c r="H14">
-        <v>0.2661621560553442</v>
+        <v>0.1630706208207755</v>
       </c>
       <c r="I14">
-        <v>0.431627406603404</v>
+        <v>0.006039183433269812</v>
       </c>
       <c r="J14">
-        <v>0.5468764932033991</v>
+        <v>0.320671051150768</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2484174354828212</v>
       </c>
       <c r="L14">
-        <v>2.964857577736552</v>
+        <v>0.5045777437887722</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.9562156164217015</v>
       </c>
       <c r="O14">
-        <v>1.470703580070904</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>2.134976266617826</v>
+      </c>
+      <c r="Q14">
+        <v>1.736998861191722</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.409375476045398</v>
+        <v>2.217326334733229</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.0884569659674419</v>
+        <v>0.1224024099068259</v>
       </c>
       <c r="E15">
-        <v>0.2515587827602985</v>
+        <v>0.260472155909234</v>
       </c>
       <c r="F15">
-        <v>0.4157100560242171</v>
+        <v>0.542537881133299</v>
       </c>
       <c r="G15">
-        <v>0.4482855273417954</v>
+        <v>0.513193274138672</v>
       </c>
       <c r="H15">
-        <v>0.2646255500678762</v>
+        <v>0.1754929746807505</v>
       </c>
       <c r="I15">
-        <v>0.4301786826511105</v>
+        <v>0.006336605236035631</v>
       </c>
       <c r="J15">
-        <v>0.5425137173713352</v>
+        <v>0.3152023500521324</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2509187580804522</v>
       </c>
       <c r="L15">
-        <v>2.932799275897594</v>
+        <v>0.5130450021077451</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.9291729133938702</v>
       </c>
       <c r="O15">
-        <v>1.457220665813878</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>2.1423343352713</v>
+      </c>
+      <c r="Q15">
+        <v>1.699847704994937</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.070083366818096</v>
+        <v>2.084098201435665</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.09008625715967256</v>
+        <v>0.1218407644038173</v>
       </c>
       <c r="E16">
-        <v>0.2430995020815132</v>
+        <v>0.2508279957522817</v>
       </c>
       <c r="F16">
-        <v>0.4011853668136496</v>
+        <v>0.5244428352487489</v>
       </c>
       <c r="G16">
-        <v>0.4211540135470813</v>
+        <v>0.4853898709231856</v>
       </c>
       <c r="H16">
-        <v>0.2560942767549079</v>
+        <v>0.1623018631403994</v>
       </c>
       <c r="I16">
-        <v>0.42248416271552</v>
+        <v>0.007224982855686513</v>
       </c>
       <c r="J16">
-        <v>0.5175912304168264</v>
+        <v>0.3050517440796767</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2580810031622871</v>
       </c>
       <c r="L16">
-        <v>2.749237720362572</v>
+        <v>0.488570035604198</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.8761306637305211</v>
       </c>
       <c r="O16">
-        <v>1.381585416881961</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>2.065218154266006</v>
+      </c>
+      <c r="Q16">
+        <v>1.619459530251561</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.862320400423187</v>
+        <v>2.038037695782464</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.09113041786580212</v>
+        <v>0.1203080999698649</v>
       </c>
       <c r="E17">
-        <v>0.237959021372248</v>
+        <v>0.2337573142068265</v>
       </c>
       <c r="F17">
-        <v>0.39281733411255</v>
+        <v>0.5340108501618062</v>
       </c>
       <c r="G17">
-        <v>0.4049352757797635</v>
+        <v>0.4834439377211197</v>
       </c>
       <c r="H17">
-        <v>0.2510964492858534</v>
+        <v>0.1242935703640455</v>
       </c>
       <c r="I17">
-        <v>0.4182870376840313</v>
+        <v>0.00771534927075912</v>
       </c>
       <c r="J17">
-        <v>0.5023699968283211</v>
+        <v>0.3065342698297826</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2603504506788106</v>
       </c>
       <c r="L17">
-        <v>2.636746813026065</v>
+        <v>0.4479629903451183</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.8841083628127535</v>
       </c>
       <c r="O17">
-        <v>1.336578893471227</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>1.978224641852904</v>
+      </c>
+      <c r="Q17">
+        <v>1.6183153910371</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.742945172965392</v>
+        <v>2.06507367868312</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.09174725902934355</v>
+        <v>0.1185209567233834</v>
       </c>
       <c r="E18">
-        <v>0.2350199693234245</v>
+        <v>0.2103533733491076</v>
       </c>
       <c r="F18">
-        <v>0.3881954066517821</v>
+        <v>0.5696161203753434</v>
       </c>
       <c r="G18">
-        <v>0.3957553940409895</v>
+        <v>0.504034483165853</v>
       </c>
       <c r="H18">
-        <v>0.2483050203083081</v>
+        <v>0.07142202780533324</v>
       </c>
       <c r="I18">
-        <v>0.4160579431649509</v>
+        <v>0.007553351726623525</v>
       </c>
       <c r="J18">
-        <v>0.4936391720376463</v>
+        <v>0.318388743560206</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2597733283647985</v>
       </c>
       <c r="L18">
-        <v>2.572081875067141</v>
+        <v>0.3926069826760425</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.944338967135792</v>
       </c>
       <c r="O18">
-        <v>1.311180761118891</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>1.871820386159584</v>
+      </c>
+      <c r="Q18">
+        <v>1.686714741774438</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.702546711396622</v>
+        <v>2.140832668299709</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.09195889187922646</v>
+        <v>0.1178248640392212</v>
       </c>
       <c r="E19">
-        <v>0.234027846074909</v>
+        <v>0.1876878200182226</v>
       </c>
       <c r="F19">
-        <v>0.3866625736393345</v>
+        <v>0.6228166436505234</v>
       </c>
       <c r="G19">
-        <v>0.3926720741532819</v>
+        <v>0.5403427554090285</v>
       </c>
       <c r="H19">
-        <v>0.2473738568816799</v>
+        <v>0.02630909188296471</v>
       </c>
       <c r="I19">
-        <v>0.4153343058703456</v>
+        <v>0.00745526925953488</v>
       </c>
       <c r="J19">
-        <v>0.4906871062137981</v>
+        <v>0.3371531078624344</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.2590958978613074</v>
       </c>
       <c r="L19">
-        <v>2.550193165557204</v>
+        <v>0.3377869682184453</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1.050749393943192</v>
       </c>
       <c r="O19">
-        <v>1.302663098947818</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>1.770050960917473</v>
+      </c>
+      <c r="Q19">
+        <v>1.802952454601268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.884423886474622</v>
+        <v>2.36679230659081</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.09101757845892422</v>
+        <v>0.1198094853081413</v>
       </c>
       <c r="E20">
-        <v>0.2385044023586715</v>
+        <v>0.1652731667841962</v>
       </c>
       <c r="F20">
-        <v>0.3936881617234036</v>
+        <v>0.7271473005080935</v>
       </c>
       <c r="G20">
-        <v>0.4066462274622467</v>
+        <v>0.622173127621565</v>
       </c>
       <c r="H20">
-        <v>0.2516197898668082</v>
+        <v>0.0007976053684797257</v>
       </c>
       <c r="I20">
-        <v>0.4187145225088003</v>
+        <v>0.006502650011739775</v>
       </c>
       <c r="J20">
-        <v>0.5039878160972648</v>
+        <v>0.376005424220395</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.2568251921726361</v>
       </c>
       <c r="L20">
-        <v>2.648717703080905</v>
+        <v>0.2805733527896876</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1.273892096676093</v>
       </c>
       <c r="O20">
-        <v>1.341318842526221</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>1.665666604062224</v>
+      </c>
+      <c r="Q20">
+        <v>2.057889510732451</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.497105317075011</v>
+        <v>2.666314919120452</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.08805023215534646</v>
+        <v>0.1205095897319484</v>
       </c>
       <c r="E21">
-        <v>0.2537582897976094</v>
+        <v>0.1695176594485908</v>
       </c>
       <c r="F21">
-        <v>0.4196345876816991</v>
+        <v>0.7952479200969265</v>
       </c>
       <c r="G21">
-        <v>0.4554283650329154</v>
+        <v>0.6978452647799998</v>
       </c>
       <c r="H21">
-        <v>0.2669039840846636</v>
+        <v>0.001756566666866854</v>
       </c>
       <c r="I21">
-        <v>0.4323331278817975</v>
+        <v>0.005112855817431594</v>
       </c>
       <c r="J21">
-        <v>0.5489699921507025</v>
+        <v>0.4069853400849439</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.2424776062171836</v>
       </c>
       <c r="L21">
-        <v>2.980233334428078</v>
+        <v>0.292879391083865</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1.445281085818266</v>
       </c>
       <c r="O21">
-        <v>1.477198715710671</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>1.744725038617247</v>
+      </c>
+      <c r="Q21">
+        <v>2.283515096102605</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.898981731163303</v>
+        <v>2.860238101554444</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.08625875726937693</v>
+        <v>0.1209083506136519</v>
       </c>
       <c r="E22">
-        <v>0.2638931339174277</v>
+        <v>0.1730060720890449</v>
       </c>
       <c r="F22">
-        <v>0.4384724448862443</v>
+        <v>0.8376020680634468</v>
       </c>
       <c r="G22">
-        <v>0.4888021129753781</v>
+        <v>0.7459457546986101</v>
       </c>
       <c r="H22">
-        <v>0.2777097151897436</v>
+        <v>0.002657252319814285</v>
       </c>
       <c r="I22">
-        <v>0.4430398764039225</v>
+        <v>0.004050645901374494</v>
       </c>
       <c r="J22">
-        <v>0.5786027866333256</v>
+        <v>0.4266274432998642</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.2334953514893991</v>
       </c>
       <c r="L22">
-        <v>3.197370160674893</v>
+        <v>0.3028051354303258</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1.544524218870265</v>
       </c>
       <c r="O22">
-        <v>1.570867658769174</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>1.798518847035666</v>
+      </c>
+      <c r="Q22">
+        <v>2.426824835938305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.684342190819507</v>
+        <v>2.762188296949773</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.0872012229412249</v>
+        <v>0.1207726918082592</v>
       </c>
       <c r="E23">
-        <v>0.2584683875253475</v>
+        <v>0.1709260581296093</v>
       </c>
       <c r="F23">
-        <v>0.428237271688765</v>
+        <v>0.8162051088219044</v>
       </c>
       <c r="G23">
-        <v>0.470844941918898</v>
+        <v>0.721086579978433</v>
       </c>
       <c r="H23">
-        <v>0.2718639363581303</v>
+        <v>0.00215795750117953</v>
       </c>
       <c r="I23">
-        <v>0.4371521895316306</v>
+        <v>0.0042672227696956</v>
       </c>
       <c r="J23">
-        <v>0.5627647214927549</v>
+        <v>0.4165524126585041</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.238528557574252</v>
       </c>
       <c r="L23">
-        <v>3.081429597476415</v>
+        <v>0.2968510619854143</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1.487447327376486</v>
       </c>
       <c r="O23">
-        <v>1.520403760837326</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>1.765038435724506</v>
+      </c>
+      <c r="Q23">
+        <v>2.352916444289036</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.874430684645802</v>
+        <v>2.380862323421184</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.09106854167135126</v>
+        <v>0.1202000925192048</v>
       </c>
       <c r="E24">
-        <v>0.2382577850032135</v>
+        <v>0.1634349424046579</v>
       </c>
       <c r="F24">
-        <v>0.3932938739021239</v>
+        <v>0.734745981379632</v>
       </c>
       <c r="G24">
-        <v>0.4058722579742522</v>
+        <v>0.6270158389721985</v>
       </c>
       <c r="H24">
-        <v>0.2513829333450843</v>
+        <v>0.0007131634520237684</v>
       </c>
       <c r="I24">
-        <v>0.4185206855676</v>
+        <v>0.005938810969129626</v>
       </c>
       <c r="J24">
-        <v>0.5032563377259009</v>
+        <v>0.3785398166613874</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.2578958350879552</v>
       </c>
       <c r="L24">
-        <v>2.643305641613779</v>
+        <v>0.2754184057928128</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1.278552437512104</v>
       </c>
       <c r="O24">
-        <v>1.339174432247347</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>1.647782766439363</v>
+      </c>
+      <c r="Q24">
+        <v>2.073456920089711</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.005401087176836</v>
+        <v>1.96725080582911</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.09586042624023605</v>
+        <v>0.1197173565873006</v>
       </c>
       <c r="E25">
-        <v>0.2171266524062432</v>
+        <v>0.1553804476944407</v>
       </c>
       <c r="F25">
-        <v>0.3628197902564168</v>
+        <v>0.6500993391348402</v>
       </c>
       <c r="G25">
-        <v>0.3413901030257733</v>
+        <v>0.5283796261801541</v>
       </c>
       <c r="H25">
-        <v>0.2324333953972655</v>
+        <v>2.021770916482701E-05</v>
       </c>
       <c r="I25">
-        <v>0.4054159163247775</v>
+        <v>0.008399152990199887</v>
       </c>
       <c r="J25">
-        <v>0.4399756552180776</v>
+        <v>0.3392256640985352</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.2802992777493578</v>
       </c>
       <c r="L25">
-        <v>2.172056866355319</v>
+        <v>0.2523173873637887</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1.05419536445325</v>
       </c>
       <c r="O25">
-        <v>1.162105350916278</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>1.524899006732383</v>
+      </c>
+      <c r="Q25">
+        <v>1.781524221328056</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_9/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.673558101959571</v>
+        <v>1.669426331246768</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1196759664247451</v>
+        <v>0.1109947170200511</v>
       </c>
       <c r="E2">
-        <v>0.1489565620420592</v>
+        <v>0.1375409594321795</v>
       </c>
       <c r="F2">
-        <v>0.59328904497103</v>
+        <v>0.5943245448427774</v>
       </c>
       <c r="G2">
-        <v>0.4599000609965884</v>
+        <v>0.4465968501193629</v>
       </c>
       <c r="H2">
-        <v>0.0001582261176091837</v>
+        <v>4.192370973354898E-05</v>
       </c>
       <c r="I2">
-        <v>0.009899404397430978</v>
+        <v>0.006771224715778068</v>
       </c>
       <c r="J2">
-        <v>0.3126345206615753</v>
+        <v>0.3628421875218635</v>
       </c>
       <c r="K2">
-        <v>0.2988413429647241</v>
+        <v>0.2722152640157833</v>
       </c>
       <c r="L2">
-        <v>0.233747366226666</v>
+        <v>0.1215611579778857</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.08587416409398418</v>
       </c>
       <c r="N2">
-        <v>0.8798348544107739</v>
+        <v>0.2173453545166524</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>1.426494756245958</v>
+        <v>0.8762292730865795</v>
       </c>
       <c r="Q2">
-        <v>1.580265972605588</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>1.392666929020578</v>
+      </c>
+      <c r="S2">
+        <v>1.591105140756014</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.465744159484331</v>
+        <v>1.4662866351905</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1195803515332221</v>
+        <v>0.1110790747611849</v>
       </c>
       <c r="E3">
-        <v>0.1448692003481487</v>
+        <v>0.1332676140503608</v>
       </c>
       <c r="F3">
-        <v>0.5542774521775797</v>
+        <v>0.5561184105037142</v>
       </c>
       <c r="G3">
-        <v>0.4132966729165304</v>
+        <v>0.4000159702507062</v>
       </c>
       <c r="H3">
-        <v>0.0006118882198619113</v>
+        <v>0.0003253205648897639</v>
       </c>
       <c r="I3">
-        <v>0.0116334078011433</v>
+        <v>0.007991844551209049</v>
       </c>
       <c r="J3">
-        <v>0.2946755521457902</v>
+        <v>0.3438512305914685</v>
       </c>
       <c r="K3">
-        <v>0.3116841245721722</v>
+        <v>0.2835321100027721</v>
       </c>
       <c r="L3">
-        <v>0.2219928047943256</v>
+        <v>0.1262331356000983</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.0914234704657404</v>
       </c>
       <c r="N3">
-        <v>0.7675906092898686</v>
+        <v>0.2049199799646502</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>1.367798232047051</v>
+        <v>0.7599312567869845</v>
       </c>
       <c r="Q3">
-        <v>1.443571029736518</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>1.326574745341901</v>
+      </c>
+      <c r="S3">
+        <v>1.456721659535958</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.337282169059023</v>
+        <v>1.340398182574177</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1195411384775769</v>
+        <v>0.1111526733301753</v>
       </c>
       <c r="E4">
-        <v>0.1423527222153638</v>
+        <v>0.1306546221013711</v>
       </c>
       <c r="F4">
-        <v>0.5308522970002443</v>
+        <v>0.5330899641701734</v>
       </c>
       <c r="G4">
-        <v>0.3850974489633785</v>
+        <v>0.3718560558619259</v>
       </c>
       <c r="H4">
-        <v>0.001054479088739124</v>
+        <v>0.0006449146019787966</v>
       </c>
       <c r="I4">
-        <v>0.0128409392883766</v>
+        <v>0.008860380441127358</v>
       </c>
       <c r="J4">
-        <v>0.2839440693879141</v>
+        <v>0.332309091993082</v>
       </c>
       <c r="K4">
-        <v>0.3198975031815785</v>
+        <v>0.2907646597051285</v>
       </c>
       <c r="L4">
-        <v>0.2147645521593944</v>
+        <v>0.1294540064740275</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.09519440125914391</v>
       </c>
       <c r="N4">
-        <v>0.6989413024256237</v>
+        <v>0.1973220528558457</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1.332725114660406</v>
+        <v>0.6889758255840093</v>
       </c>
       <c r="Q4">
-        <v>1.361129450833118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>1.287154358953629</v>
+      </c>
+      <c r="S4">
+        <v>1.37544143184931</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.283396734947303</v>
+        <v>1.287534634364846</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1195053294056301</v>
+        <v>0.1111642451536241</v>
       </c>
       <c r="E5">
-        <v>0.1413711231343218</v>
+        <v>0.129634903580726</v>
       </c>
       <c r="F5">
-        <v>0.521104063656793</v>
+        <v>0.5234917295200532</v>
       </c>
       <c r="G5">
-        <v>0.3734794076328427</v>
+        <v>0.360269624379626</v>
       </c>
       <c r="H5">
-        <v>0.001274994451927136</v>
+        <v>0.0008106623139461089</v>
       </c>
       <c r="I5">
-        <v>0.01345479107390091</v>
+        <v>0.009340941531085889</v>
       </c>
       <c r="J5">
-        <v>0.2795267697960782</v>
+        <v>0.3275197192712653</v>
       </c>
       <c r="K5">
-        <v>0.323226015510037</v>
+        <v>0.2936793339879984</v>
       </c>
       <c r="L5">
-        <v>0.2119654722785356</v>
+        <v>0.130758549717088</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.09684027765152159</v>
       </c>
       <c r="N5">
-        <v>0.6720313993223357</v>
+        <v>0.194373787622844</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1.319739087165203</v>
+        <v>0.6611253537530786</v>
       </c>
       <c r="Q5">
-        <v>1.32717058522465</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>1.272390841695056</v>
+      </c>
+      <c r="S5">
+        <v>1.341920336844112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.272817924451545</v>
+        <v>1.277178663415839</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1194699265379473</v>
+        <v>0.1111377230317041</v>
       </c>
       <c r="E6">
-        <v>0.1412650704135636</v>
+        <v>0.129518814791874</v>
       </c>
       <c r="F6">
-        <v>0.5190916891757382</v>
+        <v>0.5215178715396505</v>
       </c>
       <c r="G6">
-        <v>0.3712830852787334</v>
+        <v>0.3580914775447752</v>
       </c>
       <c r="H6">
-        <v>0.001315043829191898</v>
+        <v>0.0008411120332004751</v>
       </c>
       <c r="I6">
-        <v>0.0136723824143985</v>
+        <v>0.00955058105101525</v>
       </c>
       <c r="J6">
-        <v>0.278656989657776</v>
+        <v>0.326586747073236</v>
       </c>
       <c r="K6">
-        <v>0.3236639087558618</v>
+        <v>0.2940439049147834</v>
       </c>
       <c r="L6">
-        <v>0.2116856195196348</v>
+        <v>0.130864090671909</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.09714123883755832</v>
       </c>
       <c r="N6">
-        <v>0.6687963447665766</v>
+        <v>0.1940586164546332</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>1.318910527624126</v>
+        <v>0.6576793738158386</v>
       </c>
       <c r="Q6">
-        <v>1.320679893660952</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>1.271202528062659</v>
+      </c>
+      <c r="S6">
+        <v>1.335531645516596</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.33212302226633</v>
+        <v>1.334892001485002</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.119460400663876</v>
+        <v>0.1111011861253202</v>
       </c>
       <c r="E7">
-        <v>0.1424972577115717</v>
+        <v>0.1307044853285415</v>
       </c>
       <c r="F7">
-        <v>0.529625214039811</v>
+        <v>0.5310268198774395</v>
       </c>
       <c r="G7">
-        <v>0.3841950036701007</v>
+        <v>0.3744730668128966</v>
       </c>
       <c r="H7">
-        <v>0.001059921126019381</v>
+        <v>0.0006508706773382666</v>
       </c>
       <c r="I7">
-        <v>0.01314305549123063</v>
+        <v>0.009201664413976296</v>
       </c>
       <c r="J7">
-        <v>0.283500821426685</v>
+        <v>0.3264717103643733</v>
       </c>
       <c r="K7">
-        <v>0.3196203839346387</v>
+        <v>0.2904466025921764</v>
       </c>
       <c r="L7">
-        <v>0.2152356914197497</v>
+        <v>0.1291421835713749</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.09527242646945711</v>
       </c>
       <c r="N7">
-        <v>0.7019419234095778</v>
+        <v>0.1976202625674972</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>1.336162737363892</v>
+        <v>0.6909936719424934</v>
       </c>
       <c r="Q7">
-        <v>1.35828724596476</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>1.290826509466626</v>
+      </c>
+      <c r="S7">
+        <v>1.369230235756589</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.596168362280906</v>
+        <v>1.592195282634378</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1195369050637649</v>
+        <v>0.1110070526323437</v>
       </c>
       <c r="E8">
-        <v>0.1477656505794585</v>
+        <v>0.1359896299040777</v>
       </c>
       <c r="F8">
-        <v>0.5782764150686148</v>
+        <v>0.5767357958891566</v>
       </c>
       <c r="G8">
-        <v>0.44275195801184</v>
+        <v>0.441198934791359</v>
       </c>
       <c r="H8">
-        <v>0.0002810031243307698</v>
+        <v>0.0001116909818460465</v>
       </c>
       <c r="I8">
-        <v>0.01082239399099993</v>
+        <v>0.007579760508201971</v>
       </c>
       <c r="J8">
-        <v>0.3058724091103926</v>
+        <v>0.3380064226085437</v>
       </c>
       <c r="K8">
-        <v>0.3028023708352929</v>
+        <v>0.2755905121011974</v>
       </c>
       <c r="L8">
-        <v>0.2303839612484779</v>
+        <v>0.1227224160487284</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.08772954420447876</v>
       </c>
       <c r="N8">
-        <v>0.8455518395122397</v>
+        <v>0.2132345262936042</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>1.410950700725166</v>
+        <v>0.8375743278699304</v>
       </c>
       <c r="Q8">
-        <v>1.529654594949307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>1.375823919866676</v>
+      </c>
+      <c r="S8">
+        <v>1.529900573260107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.11500537304164</v>
+        <v>2.096995884208411</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1199929301097997</v>
+        <v>0.1110408161022289</v>
       </c>
       <c r="E9">
-        <v>0.1577797421463636</v>
+        <v>0.1464903606935515</v>
       </c>
       <c r="F9">
-        <v>0.6801766380719627</v>
+        <v>0.6751683805328597</v>
       </c>
       <c r="G9">
-        <v>0.5626089889463799</v>
+        <v>0.5645115300580414</v>
       </c>
       <c r="H9">
-        <v>0.0001478063064900281</v>
+        <v>0.0002858946687889219</v>
       </c>
       <c r="I9">
-        <v>0.007006508999864103</v>
+        <v>0.004860451091165174</v>
       </c>
       <c r="J9">
-        <v>0.3529453519011696</v>
+        <v>0.3815178866983899</v>
       </c>
       <c r="K9">
-        <v>0.2730317970766893</v>
+        <v>0.2493884912048103</v>
       </c>
       <c r="L9">
-        <v>0.2591367181805637</v>
+        <v>0.1134254647785011</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.07582513673239</v>
       </c>
       <c r="N9">
-        <v>1.123526861667756</v>
+        <v>0.2437877793523811</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>1.558942403341717</v>
+        <v>1.126029043764049</v>
       </c>
       <c r="Q9">
-        <v>1.882992014039985</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>1.544023718279689</v>
+      </c>
+      <c r="S9">
+        <v>1.872491079361538</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.475940261070036</v>
+        <v>2.444903301685258</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1200662807635364</v>
+        <v>0.1109850886095636</v>
       </c>
       <c r="E10">
-        <v>0.1670721679429974</v>
+        <v>0.1556543241515733</v>
       </c>
       <c r="F10">
-        <v>0.7492660319538089</v>
+        <v>0.7364688688322758</v>
       </c>
       <c r="G10">
-        <v>0.647160743821388</v>
+        <v>0.673304708406846</v>
       </c>
       <c r="H10">
-        <v>0.00115529619077348</v>
+        <v>0.001391484402079701</v>
       </c>
       <c r="I10">
-        <v>0.005195800244808702</v>
+        <v>0.003736459200205822</v>
       </c>
       <c r="J10">
-        <v>0.3861671409127183</v>
+        <v>0.3810288376566149</v>
       </c>
       <c r="K10">
-        <v>0.2522560228556734</v>
+        <v>0.2311298929002239</v>
       </c>
       <c r="L10">
-        <v>0.2856014422712363</v>
+        <v>0.1081664918518053</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.06862077209238082</v>
       </c>
       <c r="N10">
-        <v>1.314096251833689</v>
+        <v>0.2707491562233955</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>1.68698525924917</v>
+        <v>1.318693462152453</v>
       </c>
       <c r="Q10">
-        <v>2.132255035801194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>1.68919479996984</v>
+      </c>
+      <c r="S10">
+        <v>2.092859533779176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.512482358669843</v>
+        <v>2.486116577007181</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1182638815723838</v>
+        <v>0.1091557890961519</v>
       </c>
       <c r="E11">
-        <v>0.1913729975615865</v>
+        <v>0.1778642824818704</v>
       </c>
       <c r="F11">
-        <v>0.7064474743537659</v>
+        <v>0.6858478028954806</v>
       </c>
       <c r="G11">
-        <v>0.6333848671509514</v>
+        <v>0.7090208131941438</v>
       </c>
       <c r="H11">
-        <v>0.01977143375803436</v>
+        <v>0.01996810267139892</v>
       </c>
       <c r="I11">
-        <v>0.005372682886243929</v>
+        <v>0.004171473290601746</v>
       </c>
       <c r="J11">
-        <v>0.3752976789628235</v>
+        <v>0.3115053033928774</v>
       </c>
       <c r="K11">
-        <v>0.2407726113084556</v>
+        <v>0.2221020626221573</v>
       </c>
       <c r="L11">
-        <v>0.3497815199447558</v>
+        <v>0.1064835160219362</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.06442257561249576</v>
       </c>
       <c r="N11">
-        <v>1.257996109000771</v>
+        <v>0.3312658316526438</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>1.863871811052434</v>
+        <v>1.243428430623027</v>
       </c>
       <c r="Q11">
-        <v>2.080489082016015</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1.866257412012487</v>
+      </c>
+      <c r="S11">
+        <v>2.003009097077921</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.472809958335517</v>
+        <v>2.454968993220803</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1184580571847853</v>
+        <v>0.1088599765349514</v>
       </c>
       <c r="E12">
-        <v>0.2148200103268216</v>
+        <v>0.1991705761789362</v>
       </c>
       <c r="F12">
-        <v>0.6577453641360407</v>
+        <v>0.6356454603854829</v>
       </c>
       <c r="G12">
-        <v>0.6047560470662035</v>
+        <v>0.7029381207264151</v>
       </c>
       <c r="H12">
-        <v>0.05836443807297798</v>
+        <v>0.05853945457071319</v>
       </c>
       <c r="I12">
-        <v>0.005363516206241314</v>
+        <v>0.004176175522667691</v>
       </c>
       <c r="J12">
-        <v>0.3594039903134245</v>
+        <v>0.2740068231603061</v>
       </c>
       <c r="K12">
-        <v>0.238514113754297</v>
+        <v>0.220889033693517</v>
       </c>
       <c r="L12">
-        <v>0.4077609909445243</v>
+        <v>0.1072745453876838</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.06306418300459327</v>
       </c>
       <c r="N12">
-        <v>1.166602414570434</v>
+        <v>0.3854278200341099</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>1.987471267178137</v>
+        <v>1.139619501345862</v>
       </c>
       <c r="Q12">
-        <v>1.986595936283123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1.983536035039606</v>
+      </c>
+      <c r="S12">
+        <v>1.896624915433307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.365537753954357</v>
+        <v>2.361239723029371</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1199957896509964</v>
+        <v>0.1098402978350101</v>
       </c>
       <c r="E13">
-        <v>0.2388802370687024</v>
+        <v>0.2216074205303329</v>
       </c>
       <c r="F13">
-        <v>0.5999795307785334</v>
+        <v>0.5828224043369161</v>
       </c>
       <c r="G13">
-        <v>0.5617936581843139</v>
+        <v>0.6536624994758284</v>
       </c>
       <c r="H13">
-        <v>0.1139085863305525</v>
+        <v>0.1140762408523699</v>
       </c>
       <c r="I13">
-        <v>0.005628581814230316</v>
+        <v>0.004334954420347259</v>
       </c>
       <c r="J13">
-        <v>0.33806402240414</v>
+        <v>0.2637457873543951</v>
       </c>
       <c r="K13">
-        <v>0.2424922577416497</v>
+        <v>0.2246019049555583</v>
       </c>
       <c r="L13">
-        <v>0.4643993001655673</v>
+        <v>0.1090602271246137</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.06384518308248133</v>
       </c>
       <c r="N13">
-        <v>1.048744820089325</v>
+        <v>0.4387600045300104</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>2.081323329997957</v>
+        <v>1.015325127311939</v>
       </c>
       <c r="Q13">
-        <v>1.850825209180357</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>2.063560809546942</v>
+      </c>
+      <c r="S13">
+        <v>1.774885787070872</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.259003716491407</v>
+        <v>2.266231047525707</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1218648332894361</v>
+        <v>0.1114324991954412</v>
       </c>
       <c r="E14">
-        <v>0.2565775036572866</v>
+        <v>0.2385025765663862</v>
       </c>
       <c r="F14">
-        <v>0.5556058264475894</v>
+        <v>0.5443525173445707</v>
       </c>
       <c r="G14">
-        <v>0.5253017507694864</v>
+        <v>0.6010291191688424</v>
       </c>
       <c r="H14">
-        <v>0.1630706208207755</v>
+        <v>0.163236716137817</v>
       </c>
       <c r="I14">
-        <v>0.006039183433269812</v>
+        <v>0.004628350881518806</v>
       </c>
       <c r="J14">
-        <v>0.320671051150768</v>
+        <v>0.2672220595700736</v>
       </c>
       <c r="K14">
-        <v>0.2484174354828212</v>
+        <v>0.2295081580531697</v>
       </c>
       <c r="L14">
-        <v>0.5045777437887722</v>
+        <v>0.1106187277787516</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.06556572885119927</v>
       </c>
       <c r="N14">
-        <v>0.9562156164217015</v>
+        <v>0.4768983381915461</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>2.134976266617826</v>
+        <v>0.9207244617086019</v>
       </c>
       <c r="Q14">
-        <v>1.736998861191722</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>2.103822362957203</v>
+      </c>
+      <c r="S14">
+        <v>1.681525019659858</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.217326334733229</v>
+        <v>2.228288887770702</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1224024099068259</v>
+        <v>0.1119882846727442</v>
       </c>
       <c r="E15">
-        <v>0.260472155909234</v>
+        <v>0.2424201114006515</v>
       </c>
       <c r="F15">
-        <v>0.542537881133299</v>
+        <v>0.5337833413762425</v>
       </c>
       <c r="G15">
-        <v>0.513193274138672</v>
+        <v>0.58014251181379</v>
       </c>
       <c r="H15">
-        <v>0.1754929746807505</v>
+        <v>0.1756577082078792</v>
       </c>
       <c r="I15">
-        <v>0.006336605236035631</v>
+        <v>0.004889611815476869</v>
       </c>
       <c r="J15">
-        <v>0.3152023500521324</v>
+        <v>0.2725914810408199</v>
       </c>
       <c r="K15">
-        <v>0.2509187580804522</v>
+        <v>0.2314896171186227</v>
       </c>
       <c r="L15">
-        <v>0.5130450021077451</v>
+        <v>0.1110289432121174</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.06643260420192565</v>
       </c>
       <c r="N15">
-        <v>0.9291729133938702</v>
+        <v>0.4851180625546476</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>2.1423343352713</v>
+        <v>0.8940240648906581</v>
       </c>
       <c r="Q15">
-        <v>1.699847704994937</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>2.106472724847748</v>
+      </c>
+      <c r="S15">
+        <v>1.653907321683164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.084098201435665</v>
+        <v>2.102272031229916</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1218407644038173</v>
+        <v>0.1121582966580874</v>
       </c>
       <c r="E16">
-        <v>0.2508279957522817</v>
+        <v>0.2348180484160665</v>
       </c>
       <c r="F16">
-        <v>0.5244428352487489</v>
+        <v>0.5245885093926574</v>
       </c>
       <c r="G16">
-        <v>0.4853898709231856</v>
+        <v>0.5125333140362045</v>
       </c>
       <c r="H16">
-        <v>0.1623018631403994</v>
+        <v>0.1624401047669153</v>
       </c>
       <c r="I16">
-        <v>0.007224982855686513</v>
+        <v>0.005522177256561456</v>
       </c>
       <c r="J16">
-        <v>0.3050517440796767</v>
+        <v>0.3123456876624289</v>
       </c>
       <c r="K16">
-        <v>0.2580810031622871</v>
+        <v>0.2368886176492051</v>
       </c>
       <c r="L16">
-        <v>0.488570035604198</v>
+        <v>0.1107004938887446</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.06987126133694765</v>
       </c>
       <c r="N16">
-        <v>0.8761306637305211</v>
+        <v>0.4632863061735719</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>2.065218154266006</v>
+        <v>0.8481495933058625</v>
       </c>
       <c r="Q16">
-        <v>1.619459530251561</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>2.01900591024318</v>
+      </c>
+      <c r="S16">
+        <v>1.611320868663455</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.038037695782464</v>
+        <v>2.054929401761399</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1203080999698649</v>
+        <v>0.1110822736821575</v>
       </c>
       <c r="E17">
-        <v>0.2337573142068265</v>
+        <v>0.2192907046510868</v>
       </c>
       <c r="F17">
-        <v>0.5340108501618062</v>
+        <v>0.5369969417551417</v>
       </c>
       <c r="G17">
-        <v>0.4834439377211197</v>
+        <v>0.4935083856034055</v>
       </c>
       <c r="H17">
-        <v>0.1242935703640455</v>
+        <v>0.1244048230098258</v>
       </c>
       <c r="I17">
-        <v>0.00771534927075912</v>
+        <v>0.005882062950592015</v>
       </c>
       <c r="J17">
-        <v>0.3065342698297826</v>
+        <v>0.3360406029012495</v>
       </c>
       <c r="K17">
-        <v>0.2603504506788106</v>
+        <v>0.2386703731311721</v>
       </c>
       <c r="L17">
-        <v>0.4479629903451183</v>
+        <v>0.1100634848983892</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.07143652758884489</v>
       </c>
       <c r="N17">
-        <v>0.8841083628127535</v>
+        <v>0.4252596953550807</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>1.978224641852904</v>
+        <v>0.8617397086261462</v>
       </c>
       <c r="Q17">
-        <v>1.6183153910371</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1.932558796137329</v>
+      </c>
+      <c r="S17">
+        <v>1.624079132556346</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.06507367868312</v>
+        <v>2.074377040427976</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1185209567233834</v>
+        <v>0.1095711616008614</v>
       </c>
       <c r="E18">
-        <v>0.2103533733491076</v>
+        <v>0.197379662948947</v>
       </c>
       <c r="F18">
-        <v>0.5696161203753434</v>
+        <v>0.5723058675899821</v>
       </c>
       <c r="G18">
-        <v>0.504034483165853</v>
+        <v>0.505849000038296</v>
       </c>
       <c r="H18">
-        <v>0.07142202780533324</v>
+        <v>0.0715266077237473</v>
       </c>
       <c r="I18">
-        <v>0.007553351726623525</v>
+        <v>0.005645776438610639</v>
       </c>
       <c r="J18">
-        <v>0.318388743560206</v>
+        <v>0.3571101536929433</v>
       </c>
       <c r="K18">
-        <v>0.2597733283647985</v>
+        <v>0.2382953316050891</v>
       </c>
       <c r="L18">
-        <v>0.3926069826760425</v>
+        <v>0.1094094115636723</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.0716842063837686</v>
       </c>
       <c r="N18">
-        <v>0.944338967135792</v>
+        <v>0.372938272780857</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>1.871820386159584</v>
+        <v>0.9290016390223457</v>
       </c>
       <c r="Q18">
-        <v>1.686714741774438</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1.834261734453349</v>
+      </c>
+      <c r="S18">
+        <v>1.694881615835129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.140832668299709</v>
+        <v>2.138677521382419</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1178248640392212</v>
+        <v>0.1089402892897935</v>
       </c>
       <c r="E19">
-        <v>0.1876878200182226</v>
+        <v>0.1758992945851716</v>
       </c>
       <c r="F19">
-        <v>0.6228166436505234</v>
+        <v>0.623314452318354</v>
       </c>
       <c r="G19">
-        <v>0.5403427554090285</v>
+        <v>0.5384314134967383</v>
       </c>
       <c r="H19">
-        <v>0.02630909188296471</v>
+        <v>0.02643947682872039</v>
       </c>
       <c r="I19">
-        <v>0.00745526925953488</v>
+        <v>0.005635602932859918</v>
       </c>
       <c r="J19">
-        <v>0.3371531078624344</v>
+        <v>0.3778738732804072</v>
       </c>
       <c r="K19">
-        <v>0.2590958978613074</v>
+        <v>0.2377636252710116</v>
       </c>
       <c r="L19">
-        <v>0.3377869682184453</v>
+        <v>0.1092847609890808</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.07145997965396145</v>
       </c>
       <c r="N19">
-        <v>1.050749393943192</v>
+        <v>0.3208677367377106</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>1.770050960917473</v>
+        <v>1.044007442025787</v>
       </c>
       <c r="Q19">
-        <v>1.802952454601268</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>1.74413054132242</v>
+      </c>
+      <c r="S19">
+        <v>1.806993404702496</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.36679230659081</v>
+        <v>2.341934306050973</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1198094853081413</v>
+        <v>0.110692613335869</v>
       </c>
       <c r="E20">
-        <v>0.1652731667841962</v>
+        <v>0.1541990318544286</v>
       </c>
       <c r="F20">
-        <v>0.7271473005080935</v>
+        <v>0.7198192258321683</v>
       </c>
       <c r="G20">
-        <v>0.622173127621565</v>
+        <v>0.6289441641873452</v>
       </c>
       <c r="H20">
-        <v>0.0007976053684797257</v>
+        <v>0.001022179807001589</v>
       </c>
       <c r="I20">
-        <v>0.006502650011739775</v>
+        <v>0.005012724831940041</v>
       </c>
       <c r="J20">
-        <v>0.376005424220395</v>
+        <v>0.3984302212400479</v>
       </c>
       <c r="K20">
-        <v>0.2568251921726361</v>
+        <v>0.2352438443429878</v>
       </c>
       <c r="L20">
-        <v>0.2805733527896876</v>
+        <v>0.1091942567616919</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.0701850300399196</v>
       </c>
       <c r="N20">
-        <v>1.273892096676093</v>
+        <v>0.266068659352463</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>1.665666604062224</v>
+        <v>1.280497309316473</v>
       </c>
       <c r="Q20">
-        <v>2.057889510732451</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>1.661159355358734</v>
+      </c>
+      <c r="S20">
+        <v>2.039273073306759</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.666314919120452</v>
+        <v>2.617773871678594</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1205095897319484</v>
+        <v>0.111820996964811</v>
       </c>
       <c r="E21">
-        <v>0.1695176594485908</v>
+        <v>0.1568011761892336</v>
       </c>
       <c r="F21">
-        <v>0.7952479200969265</v>
+        <v>0.7639399157927045</v>
       </c>
       <c r="G21">
-        <v>0.6978452647799998</v>
+        <v>0.794881614533324</v>
       </c>
       <c r="H21">
-        <v>0.001756566666866854</v>
+        <v>0.001978575059794929</v>
       </c>
       <c r="I21">
-        <v>0.005112855817431594</v>
+        <v>0.004125319461245169</v>
       </c>
       <c r="J21">
-        <v>0.4069853400849439</v>
+        <v>0.3123490660737218</v>
       </c>
       <c r="K21">
-        <v>0.2424776062171836</v>
+        <v>0.2222743315010355</v>
       </c>
       <c r="L21">
-        <v>0.292879391083865</v>
+        <v>0.1060880031867724</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.06527225319095242</v>
       </c>
       <c r="N21">
-        <v>1.445281085818266</v>
+        <v>0.2762808347242967</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>1.744725038617247</v>
+        <v>1.439577438808413</v>
       </c>
       <c r="Q21">
-        <v>2.283515096102605</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>1.76532479708041</v>
+      </c>
+      <c r="S21">
+        <v>2.17321709091064</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.860238101554444</v>
+        <v>2.795484043294607</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1209083506136519</v>
+        <v>0.1127042630328141</v>
       </c>
       <c r="E22">
-        <v>0.1730060720890449</v>
+        <v>0.1591356412119875</v>
       </c>
       <c r="F22">
-        <v>0.8376020680634468</v>
+        <v>0.7890141935281747</v>
       </c>
       <c r="G22">
-        <v>0.7459457546986101</v>
+        <v>0.9124331659274958</v>
       </c>
       <c r="H22">
-        <v>0.002657252319814285</v>
+        <v>0.002830543728870594</v>
       </c>
       <c r="I22">
-        <v>0.004050645901374494</v>
+        <v>0.003283697187396406</v>
       </c>
       <c r="J22">
-        <v>0.4266274432998642</v>
+        <v>0.258153289844401</v>
       </c>
       <c r="K22">
-        <v>0.2334953514893991</v>
+        <v>0.2141539637926723</v>
       </c>
       <c r="L22">
-        <v>0.3028051354303258</v>
+        <v>0.1044220941539651</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.06238814554670524</v>
       </c>
       <c r="N22">
-        <v>1.544524218870265</v>
+        <v>0.2846142732531121</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>1.798518847035666</v>
+        <v>1.528725247570634</v>
       </c>
       <c r="Q22">
-        <v>2.426824835938305</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>1.83612854581142</v>
+      </c>
+      <c r="S22">
+        <v>2.250337619753054</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.762188296949773</v>
+        <v>2.707307791378526</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1207726918082592</v>
+        <v>0.1122009151542747</v>
       </c>
       <c r="E23">
-        <v>0.1709260581296093</v>
+        <v>0.1578959364050743</v>
       </c>
       <c r="F23">
-        <v>0.8162051088219044</v>
+        <v>0.7791771222235724</v>
       </c>
       <c r="G23">
-        <v>0.721086579978433</v>
+        <v>0.8395551155944787</v>
       </c>
       <c r="H23">
-        <v>0.00215795750117953</v>
+        <v>0.002367730303732052</v>
       </c>
       <c r="I23">
-        <v>0.0042672227696956</v>
+        <v>0.003324164439185928</v>
       </c>
       <c r="J23">
-        <v>0.4165524126585041</v>
+        <v>0.297450560734859</v>
       </c>
       <c r="K23">
-        <v>0.238528557574252</v>
+        <v>0.2186716274374658</v>
       </c>
       <c r="L23">
-        <v>0.2968510619854143</v>
+        <v>0.1052989164977283</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.06404594934565111</v>
       </c>
       <c r="N23">
-        <v>1.487447327376486</v>
+        <v>0.2799087651673133</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>1.765038435724506</v>
+        <v>1.47953348505655</v>
       </c>
       <c r="Q23">
-        <v>2.352916444289036</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>1.792282065717387</v>
+      </c>
+      <c r="S23">
+        <v>2.221052263934183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.380862323421184</v>
+        <v>2.354470444733124</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1202000925192048</v>
+        <v>0.1110487330765833</v>
       </c>
       <c r="E24">
-        <v>0.1634349424046579</v>
+        <v>0.1524106672700185</v>
       </c>
       <c r="F24">
-        <v>0.734745981379632</v>
+        <v>0.7271702578004664</v>
       </c>
       <c r="G24">
-        <v>0.6270158389721985</v>
+        <v>0.6328041047323723</v>
       </c>
       <c r="H24">
-        <v>0.0007131634520237684</v>
+        <v>0.0009429462310921455</v>
       </c>
       <c r="I24">
-        <v>0.005938810969129626</v>
+        <v>0.004360269433930419</v>
       </c>
       <c r="J24">
-        <v>0.3785398166613874</v>
+        <v>0.4018584127519489</v>
       </c>
       <c r="K24">
-        <v>0.2578958350879552</v>
+        <v>0.2360772727491413</v>
       </c>
       <c r="L24">
-        <v>0.2754184057928128</v>
+        <v>0.1094888386552099</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.07051800407933762</v>
       </c>
       <c r="N24">
-        <v>1.278552437512104</v>
+        <v>0.2610662589366655</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>1.647782766439363</v>
+        <v>1.286552552896524</v>
       </c>
       <c r="Q24">
-        <v>2.073456920089711</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>1.644278871396793</v>
+      </c>
+      <c r="S24">
+        <v>2.054643113868508</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.96725080582911</v>
+        <v>1.954414306889703</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1197173565873006</v>
+        <v>0.1108505065365168</v>
       </c>
       <c r="E25">
-        <v>0.1553804476944407</v>
+        <v>0.1440618887209464</v>
       </c>
       <c r="F25">
-        <v>0.6500993391348402</v>
+        <v>0.6474772400607165</v>
       </c>
       <c r="G25">
-        <v>0.5283796261801541</v>
+        <v>0.5242840712748915</v>
       </c>
       <c r="H25">
-        <v>2.021770916482701E-05</v>
+        <v>9.362281887637103E-05</v>
       </c>
       <c r="I25">
-        <v>0.008399152990199887</v>
+        <v>0.006051383143111266</v>
       </c>
       <c r="J25">
-        <v>0.3392256640985352</v>
+        <v>0.376538673364891</v>
       </c>
       <c r="K25">
-        <v>0.2802992777493578</v>
+        <v>0.255817206031584</v>
       </c>
       <c r="L25">
-        <v>0.2523173873637887</v>
+        <v>0.1154135820184399</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.07864895069606054</v>
       </c>
       <c r="N25">
-        <v>1.05419536445325</v>
+        <v>0.2366244933518544</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>1.524899006732383</v>
+        <v>1.054668548302715</v>
       </c>
       <c r="Q25">
-        <v>1.781524221328056</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>1.503460306902284</v>
+      </c>
+      <c r="S25">
+        <v>1.779377928482376</v>
       </c>
     </row>
   </sheetData>
